--- a/BackTest/2020-01-14 BackTest MTL.xlsx
+++ b/BackTest/2020-01-14 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M260"/>
+  <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>248.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="E2" t="n">
         <v>248.1</v>
       </c>
-      <c r="C2" t="n">
-        <v>248</v>
-      </c>
-      <c r="D2" t="n">
-        <v>248.1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>248</v>
-      </c>
       <c r="F2" t="n">
-        <v>5182.5934</v>
+        <v>9530.4311</v>
       </c>
       <c r="G2" t="n">
-        <v>250.0516666666665</v>
+        <v>250.0849999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>248.4</v>
+        <v>248.1</v>
       </c>
       <c r="C3" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="D3" t="n">
-        <v>248.4</v>
+        <v>248.1</v>
       </c>
       <c r="E3" t="n">
-        <v>248.4</v>
+        <v>248</v>
       </c>
       <c r="F3" t="n">
-        <v>242.0726</v>
+        <v>5182.5934</v>
       </c>
       <c r="G3" t="n">
-        <v>250.0183333333332</v>
+        <v>250.0516666666665</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>248.4</v>
       </c>
       <c r="F4" t="n">
-        <v>5513.7981</v>
+        <v>242.0726</v>
       </c>
       <c r="G4" t="n">
-        <v>249.9866666666665</v>
+        <v>250.0183333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>248.2</v>
+        <v>248.4</v>
       </c>
       <c r="C5" t="n">
-        <v>248.2</v>
+        <v>248.4</v>
       </c>
       <c r="D5" t="n">
-        <v>248.2</v>
+        <v>248.4</v>
       </c>
       <c r="E5" t="n">
-        <v>248.2</v>
+        <v>248.4</v>
       </c>
       <c r="F5" t="n">
-        <v>152.93</v>
+        <v>5513.7981</v>
       </c>
       <c r="G5" t="n">
-        <v>249.9499999999999</v>
+        <v>249.9866666666665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>248.6</v>
+        <v>248.2</v>
       </c>
       <c r="C6" t="n">
-        <v>248.6</v>
+        <v>248.2</v>
       </c>
       <c r="D6" t="n">
-        <v>248.6</v>
+        <v>248.2</v>
       </c>
       <c r="E6" t="n">
-        <v>248.6</v>
+        <v>248.2</v>
       </c>
       <c r="F6" t="n">
-        <v>208.0624</v>
+        <v>152.93</v>
       </c>
       <c r="G6" t="n">
-        <v>249.9183333333332</v>
+        <v>249.9499999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>249.1</v>
+        <v>248.6</v>
       </c>
       <c r="C7" t="n">
-        <v>249.1</v>
+        <v>248.6</v>
       </c>
       <c r="D7" t="n">
-        <v>249.1</v>
+        <v>248.6</v>
       </c>
       <c r="E7" t="n">
-        <v>249.1</v>
+        <v>248.6</v>
       </c>
       <c r="F7" t="n">
-        <v>2.1111</v>
+        <v>208.0624</v>
       </c>
       <c r="G7" t="n">
-        <v>249.8949999999999</v>
+        <v>249.9183333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>249.1</v>
       </c>
       <c r="F8" t="n">
-        <v>839.6138999999999</v>
+        <v>2.1111</v>
       </c>
       <c r="G8" t="n">
-        <v>249.8733333333332</v>
+        <v>249.8949999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>249.1</v>
       </c>
       <c r="F9" t="n">
-        <v>972.2916</v>
+        <v>839.6138999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>249.8499999999999</v>
+        <v>249.8733333333332</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="C10" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="D10" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="E10" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1043.9836</v>
+        <v>972.2916</v>
       </c>
       <c r="G10" t="n">
-        <v>249.8249999999999</v>
+        <v>249.8499999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>249.2</v>
+        <v>249</v>
       </c>
       <c r="C11" t="n">
-        <v>249.2</v>
+        <v>249</v>
       </c>
       <c r="D11" t="n">
-        <v>249.2</v>
+        <v>249</v>
       </c>
       <c r="E11" t="n">
-        <v>249.2</v>
+        <v>249</v>
       </c>
       <c r="F11" t="n">
-        <v>669.4999</v>
+        <v>1043.9836</v>
       </c>
       <c r="G11" t="n">
-        <v>249.7966666666666</v>
+        <v>249.8249999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>249.3</v>
+        <v>249.2</v>
       </c>
       <c r="C12" t="n">
-        <v>249.3</v>
+        <v>249.2</v>
       </c>
       <c r="D12" t="n">
-        <v>249.3</v>
+        <v>249.2</v>
       </c>
       <c r="E12" t="n">
-        <v>249.3</v>
+        <v>249.2</v>
       </c>
       <c r="F12" t="n">
-        <v>546.1638</v>
+        <v>669.4999</v>
       </c>
       <c r="G12" t="n">
-        <v>249.7716666666666</v>
+        <v>249.7966666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>249.3</v>
       </c>
       <c r="F13" t="n">
-        <v>740.7361</v>
+        <v>546.1638</v>
       </c>
       <c r="G13" t="n">
-        <v>249.7466666666666</v>
+        <v>249.7716666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>248.9</v>
+        <v>249.3</v>
       </c>
       <c r="C14" t="n">
-        <v>248.9</v>
+        <v>249.3</v>
       </c>
       <c r="D14" t="n">
-        <v>248.9</v>
+        <v>249.3</v>
       </c>
       <c r="E14" t="n">
-        <v>248.9</v>
+        <v>249.3</v>
       </c>
       <c r="F14" t="n">
-        <v>15.9418</v>
+        <v>740.7361</v>
       </c>
       <c r="G14" t="n">
-        <v>249.7149999999999</v>
+        <v>249.7466666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>248.6</v>
+        <v>248.9</v>
       </c>
       <c r="C15" t="n">
-        <v>248.6</v>
+        <v>248.9</v>
       </c>
       <c r="D15" t="n">
-        <v>248.6</v>
+        <v>248.9</v>
       </c>
       <c r="E15" t="n">
-        <v>248.6</v>
+        <v>248.9</v>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>15.9418</v>
       </c>
       <c r="G15" t="n">
-        <v>249.6849999999999</v>
+        <v>249.7149999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>249.8</v>
+        <v>248.6</v>
       </c>
       <c r="C16" t="n">
-        <v>249.8</v>
+        <v>248.6</v>
       </c>
       <c r="D16" t="n">
-        <v>249.8</v>
+        <v>248.6</v>
       </c>
       <c r="E16" t="n">
-        <v>248.4</v>
+        <v>248.6</v>
       </c>
       <c r="F16" t="n">
-        <v>3099.1216</v>
+        <v>500</v>
       </c>
       <c r="G16" t="n">
-        <v>249.6749999999999</v>
+        <v>249.6849999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>249.7</v>
+        <v>249.8</v>
       </c>
       <c r="C17" t="n">
-        <v>249.7</v>
+        <v>249.8</v>
       </c>
       <c r="D17" t="n">
-        <v>249.7</v>
+        <v>249.8</v>
       </c>
       <c r="E17" t="n">
-        <v>249.7</v>
+        <v>248.4</v>
       </c>
       <c r="F17" t="n">
-        <v>240</v>
+        <v>3099.1216</v>
       </c>
       <c r="G17" t="n">
-        <v>249.67</v>
+        <v>249.6749999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>249.6</v>
+        <v>249.7</v>
       </c>
       <c r="C18" t="n">
-        <v>249.6</v>
+        <v>249.7</v>
       </c>
       <c r="D18" t="n">
-        <v>249.6</v>
+        <v>249.7</v>
       </c>
       <c r="E18" t="n">
-        <v>249.6</v>
+        <v>249.7</v>
       </c>
       <c r="F18" t="n">
-        <v>199.7396</v>
+        <v>240</v>
       </c>
       <c r="G18" t="n">
-        <v>249.6633333333333</v>
+        <v>249.67</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>249</v>
+        <v>249.6</v>
       </c>
       <c r="C19" t="n">
-        <v>249</v>
+        <v>249.6</v>
       </c>
       <c r="D19" t="n">
-        <v>249</v>
+        <v>249.6</v>
       </c>
       <c r="E19" t="n">
-        <v>249</v>
+        <v>249.6</v>
       </c>
       <c r="F19" t="n">
-        <v>70</v>
+        <v>199.7396</v>
       </c>
       <c r="G19" t="n">
-        <v>249.6466666666666</v>
+        <v>249.6633333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>249.1</v>
+        <v>249</v>
       </c>
       <c r="C20" t="n">
-        <v>249.1</v>
+        <v>249</v>
       </c>
       <c r="D20" t="n">
-        <v>249.1</v>
+        <v>249</v>
       </c>
       <c r="E20" t="n">
-        <v>249.1</v>
+        <v>249</v>
       </c>
       <c r="F20" t="n">
         <v>70</v>
       </c>
       <c r="G20" t="n">
-        <v>249.6316666666666</v>
+        <v>249.6466666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>249.4</v>
+        <v>249.1</v>
       </c>
       <c r="C21" t="n">
-        <v>249.4</v>
+        <v>249.1</v>
       </c>
       <c r="D21" t="n">
-        <v>249.4</v>
+        <v>249.1</v>
       </c>
       <c r="E21" t="n">
-        <v>249.4</v>
+        <v>249.1</v>
       </c>
       <c r="F21" t="n">
-        <v>4.2218</v>
+        <v>70</v>
       </c>
       <c r="G21" t="n">
-        <v>249.6216666666666</v>
+        <v>249.6316666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>248.6</v>
+        <v>249.4</v>
       </c>
       <c r="C22" t="n">
-        <v>248.6</v>
+        <v>249.4</v>
       </c>
       <c r="D22" t="n">
-        <v>248.6</v>
+        <v>249.4</v>
       </c>
       <c r="E22" t="n">
-        <v>248.6</v>
+        <v>249.4</v>
       </c>
       <c r="F22" t="n">
-        <v>3213</v>
+        <v>4.2218</v>
       </c>
       <c r="G22" t="n">
-        <v>249.5983333333333</v>
+        <v>249.6216666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>248.6</v>
       </c>
       <c r="F23" t="n">
-        <v>2409.8</v>
+        <v>3213</v>
       </c>
       <c r="G23" t="n">
-        <v>249.5766666666667</v>
+        <v>249.5983333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>248.3</v>
+        <v>248.6</v>
       </c>
       <c r="C24" t="n">
-        <v>248.3</v>
+        <v>248.6</v>
       </c>
       <c r="D24" t="n">
-        <v>248.3</v>
+        <v>248.6</v>
       </c>
       <c r="E24" t="n">
-        <v>248.3</v>
+        <v>248.6</v>
       </c>
       <c r="F24" t="n">
-        <v>805.6292999999999</v>
+        <v>2409.8</v>
       </c>
       <c r="G24" t="n">
-        <v>249.5516666666666</v>
+        <v>249.5766666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>248.3</v>
       </c>
       <c r="C25" t="n">
-        <v>248.6</v>
+        <v>248.3</v>
       </c>
       <c r="D25" t="n">
-        <v>248.6</v>
+        <v>248.3</v>
       </c>
       <c r="E25" t="n">
         <v>248.3</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>805.6292999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>249.5333333333333</v>
+        <v>249.5516666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>248.5</v>
+        <v>248.3</v>
       </c>
       <c r="C26" t="n">
-        <v>248.4</v>
+        <v>248.6</v>
       </c>
       <c r="D26" t="n">
-        <v>248.5</v>
+        <v>248.6</v>
       </c>
       <c r="E26" t="n">
-        <v>248.4</v>
+        <v>248.3</v>
       </c>
       <c r="F26" t="n">
-        <v>830.5075000000001</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>249.5066666666666</v>
+        <v>249.5333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>248.3</v>
+        <v>248.5</v>
       </c>
       <c r="C27" t="n">
-        <v>248.3</v>
+        <v>248.4</v>
       </c>
       <c r="D27" t="n">
-        <v>248.3</v>
+        <v>248.5</v>
       </c>
       <c r="E27" t="n">
-        <v>248.3</v>
+        <v>248.4</v>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>830.5075000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>249.4666666666666</v>
+        <v>249.5066666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>248.1</v>
+        <v>248.3</v>
       </c>
       <c r="C28" t="n">
-        <v>248.1</v>
+        <v>248.3</v>
       </c>
       <c r="D28" t="n">
-        <v>248.1</v>
+        <v>248.3</v>
       </c>
       <c r="E28" t="n">
-        <v>248.1</v>
+        <v>248.3</v>
       </c>
       <c r="F28" t="n">
-        <v>2.6845</v>
+        <v>200</v>
       </c>
       <c r="G28" t="n">
-        <v>249.4349999999999</v>
+        <v>249.4666666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>248.9</v>
+        <v>248.1</v>
       </c>
       <c r="C29" t="n">
-        <v>248.9</v>
+        <v>248.1</v>
       </c>
       <c r="D29" t="n">
-        <v>248.9</v>
+        <v>248.1</v>
       </c>
       <c r="E29" t="n">
-        <v>248.9</v>
+        <v>248.1</v>
       </c>
       <c r="F29" t="n">
-        <v>44.4142</v>
+        <v>2.6845</v>
       </c>
       <c r="G29" t="n">
-        <v>249.4166666666666</v>
+        <v>249.4349999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>247.6</v>
+        <v>248.9</v>
       </c>
       <c r="C30" t="n">
-        <v>247.7</v>
+        <v>248.9</v>
       </c>
       <c r="D30" t="n">
-        <v>247.7</v>
+        <v>248.9</v>
       </c>
       <c r="E30" t="n">
-        <v>247.6</v>
+        <v>248.9</v>
       </c>
       <c r="F30" t="n">
-        <v>7492.4467</v>
+        <v>44.4142</v>
       </c>
       <c r="G30" t="n">
-        <v>249.3716666666666</v>
+        <v>249.4166666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>247.7</v>
+        <v>247.6</v>
       </c>
       <c r="C31" t="n">
         <v>247.7</v>
@@ -1457,13 +1457,13 @@
         <v>247.7</v>
       </c>
       <c r="E31" t="n">
-        <v>247.7</v>
+        <v>247.6</v>
       </c>
       <c r="F31" t="n">
-        <v>2016</v>
+        <v>7492.4467</v>
       </c>
       <c r="G31" t="n">
-        <v>249.3266666666667</v>
+        <v>249.3716666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>247.5</v>
+        <v>247.7</v>
       </c>
       <c r="C32" t="n">
-        <v>247.5</v>
+        <v>247.7</v>
       </c>
       <c r="D32" t="n">
-        <v>247.5</v>
+        <v>247.7</v>
       </c>
       <c r="E32" t="n">
-        <v>247.5</v>
+        <v>247.7</v>
       </c>
       <c r="F32" t="n">
-        <v>2.691</v>
+        <v>2016</v>
       </c>
       <c r="G32" t="n">
-        <v>249.2783333333333</v>
+        <v>249.3266666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         <v>247.5</v>
       </c>
       <c r="E33" t="n">
-        <v>247.3</v>
+        <v>247.5</v>
       </c>
       <c r="F33" t="n">
-        <v>7442.891</v>
+        <v>2.691</v>
       </c>
       <c r="G33" t="n">
-        <v>249.2333333333333</v>
+        <v>249.2783333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1562,13 +1562,13 @@
         <v>247.5</v>
       </c>
       <c r="E34" t="n">
-        <v>247.5</v>
+        <v>247.3</v>
       </c>
       <c r="F34" t="n">
-        <v>196</v>
+        <v>7442.891</v>
       </c>
       <c r="G34" t="n">
-        <v>249.1866666666666</v>
+        <v>249.2333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>247.5</v>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G35" t="n">
-        <v>249.1383333333333</v>
+        <v>249.1866666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>247.5</v>
       </c>
       <c r="F36" t="n">
-        <v>414</v>
+        <v>200</v>
       </c>
       <c r="G36" t="n">
-        <v>249.0916666666667</v>
+        <v>249.1383333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>247.5</v>
       </c>
       <c r="F37" t="n">
-        <v>2210</v>
+        <v>414</v>
       </c>
       <c r="G37" t="n">
-        <v>249.045</v>
+        <v>249.0916666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>247.5</v>
       </c>
       <c r="F38" t="n">
-        <v>1065</v>
+        <v>2210</v>
       </c>
       <c r="G38" t="n">
-        <v>248.9983333333334</v>
+        <v>249.045</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>247.5</v>
       </c>
       <c r="C39" t="n">
-        <v>247.2</v>
+        <v>247.5</v>
       </c>
       <c r="D39" t="n">
         <v>247.5</v>
       </c>
       <c r="E39" t="n">
-        <v>247.2</v>
+        <v>247.5</v>
       </c>
       <c r="F39" t="n">
-        <v>3110.2056</v>
+        <v>1065</v>
       </c>
       <c r="G39" t="n">
-        <v>248.9466666666667</v>
+        <v>248.9983333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>247.1</v>
+        <v>247.5</v>
       </c>
       <c r="C40" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="D40" t="n">
-        <v>247.1</v>
+        <v>247.5</v>
       </c>
       <c r="E40" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="F40" t="n">
-        <v>2.6953</v>
+        <v>3110.2056</v>
       </c>
       <c r="G40" t="n">
-        <v>248.9000000000001</v>
+        <v>248.9466666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>247</v>
+        <v>247.1</v>
       </c>
       <c r="C41" t="n">
-        <v>247</v>
+        <v>247.1</v>
       </c>
       <c r="D41" t="n">
-        <v>247</v>
+        <v>247.1</v>
       </c>
       <c r="E41" t="n">
-        <v>247</v>
+        <v>247.1</v>
       </c>
       <c r="F41" t="n">
-        <v>255</v>
+        <v>2.6953</v>
       </c>
       <c r="G41" t="n">
-        <v>248.8483333333334</v>
+        <v>248.9000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>246.5</v>
+        <v>247</v>
       </c>
       <c r="C42" t="n">
-        <v>247.1</v>
+        <v>247</v>
       </c>
       <c r="D42" t="n">
-        <v>247.1</v>
+        <v>247</v>
       </c>
       <c r="E42" t="n">
-        <v>246.5</v>
+        <v>247</v>
       </c>
       <c r="F42" t="n">
-        <v>15265.92</v>
+        <v>255</v>
       </c>
       <c r="G42" t="n">
-        <v>248.8016666666667</v>
+        <v>248.8483333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>247.1</v>
+        <v>246.5</v>
       </c>
       <c r="C43" t="n">
         <v>247.1</v>
@@ -1877,13 +1877,13 @@
         <v>247.1</v>
       </c>
       <c r="E43" t="n">
-        <v>247.1</v>
+        <v>246.5</v>
       </c>
       <c r="F43" t="n">
-        <v>908</v>
+        <v>15265.92</v>
       </c>
       <c r="G43" t="n">
-        <v>248.7633333333334</v>
+        <v>248.8016666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>247.1</v>
       </c>
       <c r="C44" t="n">
-        <v>247.5</v>
+        <v>247.1</v>
       </c>
       <c r="D44" t="n">
-        <v>247.5</v>
+        <v>247.1</v>
       </c>
       <c r="E44" t="n">
         <v>247.1</v>
       </c>
       <c r="F44" t="n">
-        <v>2439.4127</v>
+        <v>908</v>
       </c>
       <c r="G44" t="n">
-        <v>248.7316666666667</v>
+        <v>248.7633333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>247.5</v>
+        <v>247.1</v>
       </c>
       <c r="C45" t="n">
         <v>247.5</v>
@@ -1947,13 +1947,13 @@
         <v>247.5</v>
       </c>
       <c r="E45" t="n">
-        <v>247.5</v>
+        <v>247.1</v>
       </c>
       <c r="F45" t="n">
-        <v>600</v>
+        <v>2439.4127</v>
       </c>
       <c r="G45" t="n">
-        <v>248.7000000000001</v>
+        <v>248.7316666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>247.5</v>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G46" t="n">
-        <v>248.6700000000001</v>
+        <v>248.7000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>247.2</v>
+        <v>247.5</v>
       </c>
       <c r="C47" t="n">
-        <v>247.2</v>
+        <v>247.5</v>
       </c>
       <c r="D47" t="n">
-        <v>247.2</v>
+        <v>247.5</v>
       </c>
       <c r="E47" t="n">
-        <v>247.2</v>
+        <v>247.5</v>
       </c>
       <c r="F47" t="n">
-        <v>2406.2241</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>248.6333333333335</v>
+        <v>248.6700000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>247</v>
+        <v>247.2</v>
       </c>
       <c r="C48" t="n">
-        <v>247</v>
+        <v>247.2</v>
       </c>
       <c r="D48" t="n">
-        <v>247</v>
+        <v>247.2</v>
       </c>
       <c r="E48" t="n">
-        <v>247</v>
+        <v>247.2</v>
       </c>
       <c r="F48" t="n">
-        <v>1266.7542</v>
+        <v>2406.2241</v>
       </c>
       <c r="G48" t="n">
-        <v>248.5950000000001</v>
+        <v>248.6333333333335</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>247.5</v>
+        <v>247</v>
       </c>
       <c r="C49" t="n">
-        <v>247.5</v>
+        <v>247</v>
       </c>
       <c r="D49" t="n">
-        <v>247.5</v>
+        <v>247</v>
       </c>
       <c r="E49" t="n">
-        <v>247.5</v>
+        <v>247</v>
       </c>
       <c r="F49" t="n">
-        <v>2956.7631</v>
+        <v>1266.7542</v>
       </c>
       <c r="G49" t="n">
-        <v>248.5650000000001</v>
+        <v>248.5950000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>247.5</v>
       </c>
       <c r="F50" t="n">
-        <v>255</v>
+        <v>2956.7631</v>
       </c>
       <c r="G50" t="n">
-        <v>248.5183333333335</v>
+        <v>248.5650000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>247.5</v>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="G51" t="n">
-        <v>248.4716666666668</v>
+        <v>248.5183333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>247.5</v>
       </c>
       <c r="F52" t="n">
-        <v>2310</v>
+        <v>500</v>
       </c>
       <c r="G52" t="n">
-        <v>248.4300000000002</v>
+        <v>248.4716666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>247</v>
+        <v>247.5</v>
       </c>
       <c r="C53" t="n">
-        <v>247</v>
+        <v>247.5</v>
       </c>
       <c r="D53" t="n">
-        <v>247</v>
+        <v>247.5</v>
       </c>
       <c r="E53" t="n">
-        <v>247</v>
+        <v>247.5</v>
       </c>
       <c r="F53" t="n">
-        <v>895.88</v>
+        <v>2310</v>
       </c>
       <c r="G53" t="n">
-        <v>248.3733333333335</v>
+        <v>248.4300000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>247</v>
       </c>
       <c r="F54" t="n">
-        <v>4096.17004048</v>
+        <v>895.88</v>
       </c>
       <c r="G54" t="n">
-        <v>248.3200000000002</v>
+        <v>248.3733333333335</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>246.7</v>
+        <v>247</v>
       </c>
       <c r="C55" t="n">
-        <v>246.7</v>
+        <v>247</v>
       </c>
       <c r="D55" t="n">
-        <v>246.7</v>
+        <v>247</v>
       </c>
       <c r="E55" t="n">
-        <v>246.7</v>
+        <v>247</v>
       </c>
       <c r="F55" t="n">
-        <v>2195.7418</v>
+        <v>4096.17004048</v>
       </c>
       <c r="G55" t="n">
-        <v>248.2600000000002</v>
+        <v>248.3200000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="C56" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="D56" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="E56" t="n">
-        <v>246.8</v>
+        <v>246.7</v>
       </c>
       <c r="F56" t="n">
-        <v>2918</v>
+        <v>2195.7418</v>
       </c>
       <c r="G56" t="n">
-        <v>248.2033333333335</v>
+        <v>248.2600000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>246.9</v>
+        <v>246.8</v>
       </c>
       <c r="C57" t="n">
-        <v>247.5</v>
+        <v>246.8</v>
       </c>
       <c r="D57" t="n">
-        <v>247.5</v>
+        <v>246.8</v>
       </c>
       <c r="E57" t="n">
-        <v>246.9</v>
+        <v>246.8</v>
       </c>
       <c r="F57" t="n">
-        <v>20013.5716</v>
+        <v>2918</v>
       </c>
       <c r="G57" t="n">
-        <v>248.1583333333335</v>
+        <v>248.2033333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>249.3</v>
+        <v>246.9</v>
       </c>
       <c r="C58" t="n">
-        <v>249.3</v>
+        <v>247.5</v>
       </c>
       <c r="D58" t="n">
-        <v>249.3</v>
+        <v>247.5</v>
       </c>
       <c r="E58" t="n">
-        <v>249.3</v>
+        <v>246.9</v>
       </c>
       <c r="F58" t="n">
-        <v>12.83594063</v>
+        <v>20013.5716</v>
       </c>
       <c r="G58" t="n">
-        <v>248.1450000000001</v>
+        <v>248.1583333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>249.1</v>
+        <v>249.3</v>
       </c>
       <c r="C59" t="n">
-        <v>249.1</v>
+        <v>249.3</v>
       </c>
       <c r="D59" t="n">
-        <v>249.1</v>
+        <v>249.3</v>
       </c>
       <c r="E59" t="n">
-        <v>249.1</v>
+        <v>249.3</v>
       </c>
       <c r="F59" t="n">
-        <v>8.920112400000001</v>
+        <v>12.83594063</v>
       </c>
       <c r="G59" t="n">
-        <v>248.1300000000001</v>
+        <v>248.1450000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>249.1</v>
       </c>
       <c r="F60" t="n">
-        <v>4.5</v>
+        <v>8.920112400000001</v>
       </c>
       <c r="G60" t="n">
-        <v>248.1433333333335</v>
+        <v>248.1300000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>247.4</v>
+        <v>249.1</v>
       </c>
       <c r="C61" t="n">
-        <v>247.4</v>
+        <v>249.1</v>
       </c>
       <c r="D61" t="n">
-        <v>247.4</v>
+        <v>249.1</v>
       </c>
       <c r="E61" t="n">
-        <v>247.4</v>
+        <v>249.1</v>
       </c>
       <c r="F61" t="n">
-        <v>415</v>
+        <v>4.5</v>
       </c>
       <c r="G61" t="n">
-        <v>248.1266666666668</v>
+        <v>248.1433333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>247.3</v>
+        <v>247.4</v>
       </c>
       <c r="C62" t="n">
-        <v>248.2</v>
+        <v>247.4</v>
       </c>
       <c r="D62" t="n">
-        <v>248.2</v>
+        <v>247.4</v>
       </c>
       <c r="E62" t="n">
-        <v>247.3</v>
+        <v>247.4</v>
       </c>
       <c r="F62" t="n">
-        <v>4071.0371</v>
+        <v>415</v>
       </c>
       <c r="G62" t="n">
-        <v>248.1300000000002</v>
+        <v>248.1266666666668</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>247.6</v>
+        <v>247.3</v>
       </c>
       <c r="C63" t="n">
-        <v>247.6</v>
+        <v>248.2</v>
       </c>
       <c r="D63" t="n">
-        <v>247.6</v>
+        <v>248.2</v>
       </c>
       <c r="E63" t="n">
-        <v>247.6</v>
+        <v>247.3</v>
       </c>
       <c r="F63" t="n">
-        <v>71.09999999999999</v>
+        <v>4071.0371</v>
       </c>
       <c r="G63" t="n">
-        <v>248.1166666666668</v>
+        <v>248.1300000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>247.2</v>
+        <v>247.6</v>
       </c>
       <c r="C64" t="n">
-        <v>247.2</v>
+        <v>247.6</v>
       </c>
       <c r="D64" t="n">
-        <v>247.2</v>
+        <v>247.6</v>
       </c>
       <c r="E64" t="n">
-        <v>247.2</v>
+        <v>247.6</v>
       </c>
       <c r="F64" t="n">
-        <v>1563.8025</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>248.0966666666669</v>
+        <v>248.1166666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="C65" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="D65" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="E65" t="n">
-        <v>247.1</v>
+        <v>247.2</v>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>1563.8025</v>
       </c>
       <c r="G65" t="n">
-        <v>248.0783333333335</v>
+        <v>248.0966666666669</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>247.1</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G66" t="n">
-        <v>248.0533333333335</v>
+        <v>248.0783333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>247</v>
+        <v>247.1</v>
       </c>
       <c r="C67" t="n">
         <v>247.1</v>
@@ -2717,13 +2717,13 @@
         <v>247.1</v>
       </c>
       <c r="E67" t="n">
-        <v>247</v>
+        <v>247.1</v>
       </c>
       <c r="F67" t="n">
-        <v>2910</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>248.0200000000002</v>
+        <v>248.0533333333335</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>247.1</v>
+        <v>247</v>
       </c>
       <c r="C68" t="n">
         <v>247.1</v>
@@ -2752,13 +2752,13 @@
         <v>247.1</v>
       </c>
       <c r="E68" t="n">
-        <v>247.1</v>
+        <v>247</v>
       </c>
       <c r="F68" t="n">
-        <v>59</v>
+        <v>2910</v>
       </c>
       <c r="G68" t="n">
-        <v>247.9866666666668</v>
+        <v>248.0200000000002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>247.1</v>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G69" t="n">
-        <v>247.9533333333335</v>
+        <v>247.9866666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>247.1</v>
       </c>
       <c r="C70" t="n">
-        <v>247.3</v>
+        <v>247.1</v>
       </c>
       <c r="D70" t="n">
-        <v>247.3</v>
+        <v>247.1</v>
       </c>
       <c r="E70" t="n">
         <v>247.1</v>
       </c>
       <c r="F70" t="n">
-        <v>6997.7059</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>247.9250000000002</v>
+        <v>247.9533333333335</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>247.1</v>
+      </c>
+      <c r="C71" t="n">
         <v>247.3</v>
       </c>
-      <c r="C71" t="n">
-        <v>247.8</v>
-      </c>
       <c r="D71" t="n">
-        <v>247.8</v>
+        <v>247.3</v>
       </c>
       <c r="E71" t="n">
-        <v>247.3</v>
+        <v>247.1</v>
       </c>
       <c r="F71" t="n">
-        <v>232.0696</v>
+        <v>6997.7059</v>
       </c>
       <c r="G71" t="n">
-        <v>247.9016666666668</v>
+        <v>247.9250000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>247.9</v>
+        <v>247.3</v>
       </c>
       <c r="C72" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="D72" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="E72" t="n">
-        <v>247.9</v>
+        <v>247.3</v>
       </c>
       <c r="F72" t="n">
-        <v>9.277934650000001</v>
+        <v>232.0696</v>
       </c>
       <c r="G72" t="n">
-        <v>247.8783333333335</v>
+        <v>247.9016666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>247.9</v>
       </c>
       <c r="C73" t="n">
-        <v>247.8</v>
+        <v>247.9</v>
       </c>
       <c r="D73" t="n">
         <v>247.9</v>
       </c>
       <c r="E73" t="n">
-        <v>247.8</v>
+        <v>247.9</v>
       </c>
       <c r="F73" t="n">
-        <v>550.7051</v>
+        <v>9.277934650000001</v>
       </c>
       <c r="G73" t="n">
-        <v>247.8533333333335</v>
+        <v>247.8783333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>247.9</v>
       </c>
       <c r="C74" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="D74" t="n">
         <v>247.9</v>
       </c>
       <c r="E74" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="F74" t="n">
-        <v>1500</v>
+        <v>550.7051</v>
       </c>
       <c r="G74" t="n">
-        <v>247.8366666666668</v>
+        <v>247.8533333333335</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>247.7</v>
+        <v>247.9</v>
       </c>
       <c r="C75" t="n">
-        <v>247.7</v>
+        <v>247.9</v>
       </c>
       <c r="D75" t="n">
-        <v>247.7</v>
+        <v>247.9</v>
       </c>
       <c r="E75" t="n">
-        <v>247.7</v>
+        <v>247.9</v>
       </c>
       <c r="F75" t="n">
-        <v>778.8502</v>
+        <v>1500</v>
       </c>
       <c r="G75" t="n">
-        <v>247.8216666666668</v>
+        <v>247.8366666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3032,13 +3032,13 @@
         <v>247.7</v>
       </c>
       <c r="E76" t="n">
-        <v>246.8</v>
+        <v>247.7</v>
       </c>
       <c r="F76" t="n">
-        <v>7688.7332</v>
+        <v>778.8502</v>
       </c>
       <c r="G76" t="n">
-        <v>247.7866666666669</v>
+        <v>247.8216666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>247.1</v>
+        <v>247.7</v>
       </c>
       <c r="C77" t="n">
-        <v>247.1</v>
+        <v>247.7</v>
       </c>
       <c r="D77" t="n">
-        <v>247.1</v>
+        <v>247.7</v>
       </c>
       <c r="E77" t="n">
-        <v>247.1</v>
+        <v>246.8</v>
       </c>
       <c r="F77" t="n">
-        <v>1000</v>
+        <v>7688.7332</v>
       </c>
       <c r="G77" t="n">
-        <v>247.7433333333335</v>
+        <v>247.7866666666669</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>247.7</v>
+        <v>247.1</v>
       </c>
       <c r="C78" t="n">
-        <v>247.7</v>
+        <v>247.1</v>
       </c>
       <c r="D78" t="n">
-        <v>247.7</v>
+        <v>247.1</v>
       </c>
       <c r="E78" t="n">
-        <v>247.7</v>
+        <v>247.1</v>
       </c>
       <c r="F78" t="n">
-        <v>244.7</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>247.7116666666669</v>
+        <v>247.7433333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>247.2</v>
+        <v>247.7</v>
       </c>
       <c r="C79" t="n">
-        <v>247.2</v>
+        <v>247.7</v>
       </c>
       <c r="D79" t="n">
-        <v>247.2</v>
+        <v>247.7</v>
       </c>
       <c r="E79" t="n">
-        <v>247.2</v>
+        <v>247.7</v>
       </c>
       <c r="F79" t="n">
-        <v>3200</v>
+        <v>244.7</v>
       </c>
       <c r="G79" t="n">
-        <v>247.6816666666669</v>
+        <v>247.7116666666669</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3166,19 @@
         <v>247.2</v>
       </c>
       <c r="C80" t="n">
-        <v>247.8</v>
+        <v>247.2</v>
       </c>
       <c r="D80" t="n">
-        <v>247.8</v>
+        <v>247.2</v>
       </c>
       <c r="E80" t="n">
-        <v>246.5</v>
+        <v>247.2</v>
       </c>
       <c r="F80" t="n">
-        <v>3835</v>
+        <v>3200</v>
       </c>
       <c r="G80" t="n">
-        <v>247.6600000000002</v>
+        <v>247.6816666666669</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>247.8</v>
+        <v>247.2</v>
       </c>
       <c r="C81" t="n">
         <v>247.8</v>
@@ -3207,13 +3207,13 @@
         <v>247.8</v>
       </c>
       <c r="E81" t="n">
-        <v>247.8</v>
+        <v>246.5</v>
       </c>
       <c r="F81" t="n">
-        <v>1005</v>
+        <v>3835</v>
       </c>
       <c r="G81" t="n">
-        <v>247.6333333333335</v>
+        <v>247.6600000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>247.8</v>
       </c>
       <c r="C82" t="n">
-        <v>248</v>
+        <v>247.8</v>
       </c>
       <c r="D82" t="n">
-        <v>248</v>
+        <v>247.8</v>
       </c>
       <c r="E82" t="n">
         <v>247.8</v>
       </c>
       <c r="F82" t="n">
-        <v>188.1789</v>
+        <v>1005</v>
       </c>
       <c r="G82" t="n">
-        <v>247.6233333333335</v>
+        <v>247.6333333333335</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>248</v>
+        <v>247.8</v>
       </c>
       <c r="C83" t="n">
         <v>248</v>
@@ -3277,13 +3277,13 @@
         <v>248</v>
       </c>
       <c r="E83" t="n">
-        <v>248</v>
+        <v>247.8</v>
       </c>
       <c r="F83" t="n">
-        <v>3.0933</v>
+        <v>188.1789</v>
       </c>
       <c r="G83" t="n">
-        <v>247.6133333333335</v>
+        <v>247.6233333333335</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,16 +3306,16 @@
         <v>248</v>
       </c>
       <c r="C84" t="n">
-        <v>248.3</v>
+        <v>248</v>
       </c>
       <c r="D84" t="n">
-        <v>248.3</v>
+        <v>248</v>
       </c>
       <c r="E84" t="n">
         <v>248</v>
       </c>
       <c r="F84" t="n">
-        <v>304.4413</v>
+        <v>3.0933</v>
       </c>
       <c r="G84" t="n">
         <v>247.6133333333335</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>247.6</v>
+        <v>248</v>
       </c>
       <c r="C85" t="n">
-        <v>247.2</v>
+        <v>248.3</v>
       </c>
       <c r="D85" t="n">
-        <v>247.6</v>
+        <v>248.3</v>
       </c>
       <c r="E85" t="n">
-        <v>247.2</v>
+        <v>248</v>
       </c>
       <c r="F85" t="n">
-        <v>164.0397</v>
+        <v>304.4413</v>
       </c>
       <c r="G85" t="n">
-        <v>247.5900000000002</v>
+        <v>247.6133333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>247.8</v>
+        <v>247.6</v>
       </c>
       <c r="C86" t="n">
-        <v>247.8</v>
+        <v>247.2</v>
       </c>
       <c r="D86" t="n">
-        <v>247.8</v>
+        <v>247.6</v>
       </c>
       <c r="E86" t="n">
-        <v>247.8</v>
+        <v>247.2</v>
       </c>
       <c r="F86" t="n">
-        <v>164</v>
+        <v>164.0397</v>
       </c>
       <c r="G86" t="n">
-        <v>247.5800000000002</v>
+        <v>247.5900000000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>247.1</v>
+        <v>247.8</v>
       </c>
       <c r="C87" t="n">
         <v>247.8</v>
@@ -3417,13 +3417,13 @@
         <v>247.8</v>
       </c>
       <c r="E87" t="n">
-        <v>246.5</v>
+        <v>247.8</v>
       </c>
       <c r="F87" t="n">
-        <v>6401.7643</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
-        <v>247.5716666666668</v>
+        <v>247.5800000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>247.5</v>
+        <v>247.1</v>
       </c>
       <c r="C88" t="n">
-        <v>247.5</v>
+        <v>247.8</v>
       </c>
       <c r="D88" t="n">
-        <v>247.5</v>
+        <v>247.8</v>
       </c>
       <c r="E88" t="n">
-        <v>247.5</v>
+        <v>246.5</v>
       </c>
       <c r="F88" t="n">
-        <v>9105.411599999999</v>
+        <v>6401.7643</v>
       </c>
       <c r="G88" t="n">
-        <v>247.5616666666668</v>
+        <v>247.5716666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>247.5</v>
       </c>
       <c r="F89" t="n">
-        <v>586.2192</v>
+        <v>9105.411599999999</v>
       </c>
       <c r="G89" t="n">
-        <v>247.5383333333335</v>
+        <v>247.5616666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="C90" t="n">
-        <v>248.2</v>
+        <v>247.5</v>
       </c>
       <c r="D90" t="n">
-        <v>248.2</v>
+        <v>247.5</v>
       </c>
       <c r="E90" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="F90" t="n">
-        <v>598.0539</v>
+        <v>586.2192</v>
       </c>
       <c r="G90" t="n">
-        <v>247.5466666666668</v>
+        <v>247.5383333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>248.2</v>
+        <v>248</v>
       </c>
       <c r="C91" t="n">
         <v>248.2</v>
@@ -3557,13 +3557,13 @@
         <v>248.2</v>
       </c>
       <c r="E91" t="n">
-        <v>248.2</v>
+        <v>248</v>
       </c>
       <c r="F91" t="n">
-        <v>1274.7504</v>
+        <v>598.0539</v>
       </c>
       <c r="G91" t="n">
-        <v>247.5550000000002</v>
+        <v>247.5466666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>247.8</v>
+        <v>248.2</v>
       </c>
       <c r="C92" t="n">
-        <v>247.8</v>
+        <v>248.2</v>
       </c>
       <c r="D92" t="n">
-        <v>247.8</v>
+        <v>248.2</v>
       </c>
       <c r="E92" t="n">
-        <v>247.8</v>
+        <v>248.2</v>
       </c>
       <c r="F92" t="n">
-        <v>14362.0514</v>
+        <v>1274.7504</v>
       </c>
       <c r="G92" t="n">
-        <v>247.5600000000001</v>
+        <v>247.5550000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>247.8</v>
       </c>
       <c r="F93" t="n">
-        <v>1511.9999</v>
+        <v>14362.0514</v>
       </c>
       <c r="G93" t="n">
-        <v>247.5650000000001</v>
+        <v>247.5600000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>247.8</v>
       </c>
       <c r="F94" t="n">
-        <v>1593.1641</v>
+        <v>1511.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>247.5700000000001</v>
+        <v>247.5650000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="C95" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="D95" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="E95" t="n">
-        <v>247.9</v>
+        <v>247.8</v>
       </c>
       <c r="F95" t="n">
-        <v>3.3333</v>
+        <v>1593.1641</v>
       </c>
       <c r="G95" t="n">
-        <v>247.5766666666668</v>
+        <v>247.5700000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>247.9</v>
       </c>
       <c r="F96" t="n">
-        <v>9.9999</v>
+        <v>3.3333</v>
       </c>
       <c r="G96" t="n">
-        <v>247.5833333333335</v>
+        <v>247.5766666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>247.9</v>
       </c>
       <c r="F97" t="n">
-        <v>36.3636</v>
+        <v>9.9999</v>
       </c>
       <c r="G97" t="n">
-        <v>247.5900000000001</v>
+        <v>247.5833333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>247.8</v>
+        <v>247.9</v>
       </c>
       <c r="C98" t="n">
-        <v>247.8</v>
+        <v>247.9</v>
       </c>
       <c r="D98" t="n">
-        <v>247.8</v>
+        <v>247.9</v>
       </c>
       <c r="E98" t="n">
-        <v>247.8</v>
+        <v>247.9</v>
       </c>
       <c r="F98" t="n">
-        <v>195.0587</v>
+        <v>36.3636</v>
       </c>
       <c r="G98" t="n">
-        <v>247.5950000000001</v>
+        <v>247.5900000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>247.8</v>
       </c>
       <c r="F99" t="n">
-        <v>18.1818</v>
+        <v>195.0587</v>
       </c>
       <c r="G99" t="n">
-        <v>247.6050000000001</v>
+        <v>247.5950000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>248.1</v>
+        <v>247.8</v>
       </c>
       <c r="C100" t="n">
         <v>247.8</v>
       </c>
       <c r="D100" t="n">
-        <v>248.1</v>
+        <v>247.8</v>
       </c>
       <c r="E100" t="n">
         <v>247.8</v>
       </c>
       <c r="F100" t="n">
-        <v>46.3635</v>
+        <v>18.1818</v>
       </c>
       <c r="G100" t="n">
-        <v>247.6166666666667</v>
+        <v>247.6050000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>247.7</v>
+        <v>248.1</v>
       </c>
       <c r="C101" t="n">
-        <v>247.5</v>
+        <v>247.8</v>
       </c>
       <c r="D101" t="n">
-        <v>247.7</v>
+        <v>248.1</v>
       </c>
       <c r="E101" t="n">
-        <v>247.5</v>
+        <v>247.8</v>
       </c>
       <c r="F101" t="n">
-        <v>17.7776</v>
+        <v>46.3635</v>
       </c>
       <c r="G101" t="n">
-        <v>247.6250000000001</v>
+        <v>247.6166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>247.5</v>
+        <v>247.7</v>
       </c>
       <c r="C102" t="n">
         <v>247.5</v>
       </c>
       <c r="D102" t="n">
-        <v>247.5</v>
+        <v>247.7</v>
       </c>
       <c r="E102" t="n">
         <v>247.5</v>
       </c>
       <c r="F102" t="n">
-        <v>10.2224</v>
+        <v>17.7776</v>
       </c>
       <c r="G102" t="n">
-        <v>247.6316666666667</v>
+        <v>247.6250000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>247.4</v>
+        <v>247.5</v>
       </c>
       <c r="C103" t="n">
-        <v>246.3</v>
+        <v>247.5</v>
       </c>
       <c r="D103" t="n">
-        <v>247.4</v>
+        <v>247.5</v>
       </c>
       <c r="E103" t="n">
-        <v>246.3</v>
+        <v>247.5</v>
       </c>
       <c r="F103" t="n">
-        <v>4187.6354</v>
+        <v>10.2224</v>
       </c>
       <c r="G103" t="n">
-        <v>247.6183333333334</v>
+        <v>247.6316666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,19 +4003,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>247.5</v>
+        <v>247.4</v>
       </c>
       <c r="C104" t="n">
-        <v>247.5</v>
+        <v>246.3</v>
       </c>
       <c r="D104" t="n">
-        <v>247.5</v>
+        <v>247.4</v>
       </c>
       <c r="E104" t="n">
-        <v>247.5</v>
+        <v>246.3</v>
       </c>
       <c r="F104" t="n">
-        <v>2.1111</v>
+        <v>4187.6354</v>
       </c>
       <c r="G104" t="n">
         <v>247.6183333333334</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="C105" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="D105" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="E105" t="n">
-        <v>248</v>
+        <v>247.5</v>
       </c>
       <c r="F105" t="n">
-        <v>2.2221</v>
+        <v>2.1111</v>
       </c>
       <c r="G105" t="n">
-        <v>247.6266666666667</v>
+        <v>247.6183333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>247.9</v>
+        <v>248</v>
       </c>
       <c r="C106" t="n">
-        <v>247.9</v>
+        <v>248</v>
       </c>
       <c r="D106" t="n">
-        <v>247.9</v>
+        <v>248</v>
       </c>
       <c r="E106" t="n">
-        <v>247.9</v>
+        <v>248</v>
       </c>
       <c r="F106" t="n">
-        <v>2.258</v>
+        <v>2.2221</v>
       </c>
       <c r="G106" t="n">
-        <v>247.6333333333334</v>
+        <v>247.6266666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>247.7</v>
+        <v>247.9</v>
       </c>
       <c r="C107" t="n">
-        <v>247.5</v>
+        <v>247.9</v>
       </c>
       <c r="D107" t="n">
-        <v>247.7</v>
+        <v>247.9</v>
       </c>
       <c r="E107" t="n">
-        <v>247.5</v>
+        <v>247.9</v>
       </c>
       <c r="F107" t="n">
-        <v>165.216</v>
+        <v>2.258</v>
       </c>
       <c r="G107" t="n">
-        <v>247.6383333333333</v>
+        <v>247.6333333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>247.3</v>
+        <v>247.7</v>
       </c>
       <c r="C108" t="n">
-        <v>247.3</v>
+        <v>247.5</v>
       </c>
       <c r="D108" t="n">
-        <v>247.3</v>
+        <v>247.7</v>
       </c>
       <c r="E108" t="n">
-        <v>247.3</v>
+        <v>247.5</v>
       </c>
       <c r="F108" t="n">
-        <v>40</v>
+        <v>165.216</v>
       </c>
       <c r="G108" t="n">
-        <v>247.6433333333333</v>
+        <v>247.6383333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>247.6</v>
+        <v>247.3</v>
       </c>
       <c r="C109" t="n">
-        <v>247.6</v>
+        <v>247.3</v>
       </c>
       <c r="D109" t="n">
-        <v>247.6</v>
+        <v>247.3</v>
       </c>
       <c r="E109" t="n">
-        <v>247.6</v>
+        <v>247.3</v>
       </c>
       <c r="F109" t="n">
-        <v>16.5545</v>
+        <v>40</v>
       </c>
       <c r="G109" t="n">
-        <v>247.645</v>
+        <v>247.6433333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>247.2</v>
+        <v>247.6</v>
       </c>
       <c r="C110" t="n">
-        <v>247.2</v>
+        <v>247.6</v>
       </c>
       <c r="D110" t="n">
-        <v>247.2</v>
+        <v>247.6</v>
       </c>
       <c r="E110" t="n">
-        <v>247.2</v>
+        <v>247.6</v>
       </c>
       <c r="F110" t="n">
-        <v>2.258</v>
+        <v>16.5545</v>
       </c>
       <c r="G110" t="n">
-        <v>247.64</v>
+        <v>247.645</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>247</v>
+        <v>247.2</v>
       </c>
       <c r="C111" t="n">
-        <v>247</v>
+        <v>247.2</v>
       </c>
       <c r="D111" t="n">
-        <v>247</v>
+        <v>247.2</v>
       </c>
       <c r="E111" t="n">
-        <v>247</v>
+        <v>247.2</v>
       </c>
       <c r="F111" t="n">
         <v>2.258</v>
       </c>
       <c r="G111" t="n">
-        <v>247.6316666666667</v>
+        <v>247.64</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>246.6</v>
+        <v>247</v>
       </c>
       <c r="C112" t="n">
-        <v>246.2</v>
+        <v>247</v>
       </c>
       <c r="D112" t="n">
-        <v>246.6</v>
+        <v>247</v>
       </c>
       <c r="E112" t="n">
-        <v>246.2</v>
+        <v>247</v>
       </c>
       <c r="F112" t="n">
-        <v>5354.8316</v>
+        <v>2.258</v>
       </c>
       <c r="G112" t="n">
-        <v>247.61</v>
+        <v>247.6316666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>246.6</v>
+      </c>
+      <c r="C113" t="n">
         <v>246.2</v>
       </c>
-      <c r="C113" t="n">
-        <v>246.1</v>
-      </c>
       <c r="D113" t="n">
+        <v>246.6</v>
+      </c>
+      <c r="E113" t="n">
         <v>246.2</v>
       </c>
-      <c r="E113" t="n">
-        <v>246</v>
-      </c>
       <c r="F113" t="n">
-        <v>36800.745</v>
+        <v>5354.8316</v>
       </c>
       <c r="G113" t="n">
-        <v>247.5950000000001</v>
+        <v>247.61</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4356,19 @@
         <v>246.2</v>
       </c>
       <c r="C114" t="n">
-        <v>246.8</v>
+        <v>246.1</v>
       </c>
       <c r="D114" t="n">
-        <v>246.9</v>
+        <v>246.2</v>
       </c>
       <c r="E114" t="n">
-        <v>246.2</v>
+        <v>246</v>
       </c>
       <c r="F114" t="n">
-        <v>218.3213</v>
+        <v>36800.745</v>
       </c>
       <c r="G114" t="n">
-        <v>247.5916666666667</v>
+        <v>247.5950000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>246.2</v>
+      </c>
+      <c r="C115" t="n">
         <v>246.8</v>
       </c>
-      <c r="C115" t="n">
-        <v>247</v>
-      </c>
       <c r="D115" t="n">
-        <v>247</v>
+        <v>246.9</v>
       </c>
       <c r="E115" t="n">
-        <v>246.8</v>
+        <v>246.2</v>
       </c>
       <c r="F115" t="n">
-        <v>3230.2639</v>
+        <v>218.3213</v>
       </c>
       <c r="G115" t="n">
-        <v>247.5966666666667</v>
+        <v>247.5916666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>247</v>
+        <v>246.8</v>
       </c>
       <c r="C116" t="n">
         <v>247</v>
@@ -4432,13 +4432,13 @@
         <v>247</v>
       </c>
       <c r="E116" t="n">
-        <v>247</v>
+        <v>246.8</v>
       </c>
       <c r="F116" t="n">
-        <v>6369.7361</v>
+        <v>3230.2639</v>
       </c>
       <c r="G116" t="n">
-        <v>247.6</v>
+        <v>247.5966666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>246.8</v>
+        <v>247</v>
       </c>
       <c r="C117" t="n">
-        <v>246.8</v>
+        <v>247</v>
       </c>
       <c r="D117" t="n">
-        <v>246.8</v>
+        <v>247</v>
       </c>
       <c r="E117" t="n">
-        <v>246.8</v>
+        <v>247</v>
       </c>
       <c r="F117" t="n">
-        <v>2.1208</v>
+        <v>6369.7361</v>
       </c>
       <c r="G117" t="n">
-        <v>247.5883333333333</v>
+        <v>247.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="C118" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="D118" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="E118" t="n">
-        <v>246.7</v>
+        <v>246.8</v>
       </c>
       <c r="F118" t="n">
-        <v>2.5554</v>
+        <v>2.1208</v>
       </c>
       <c r="G118" t="n">
-        <v>247.545</v>
+        <v>247.5883333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>246.9</v>
+        <v>246.7</v>
       </c>
       <c r="C119" t="n">
-        <v>247</v>
+        <v>246.7</v>
       </c>
       <c r="D119" t="n">
-        <v>247</v>
+        <v>246.7</v>
       </c>
       <c r="E119" t="n">
-        <v>246.9</v>
+        <v>246.7</v>
       </c>
       <c r="F119" t="n">
-        <v>1681.4081</v>
+        <v>2.5554</v>
       </c>
       <c r="G119" t="n">
-        <v>247.51</v>
+        <v>247.545</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>247</v>
+        <v>246.9</v>
       </c>
       <c r="C120" t="n">
         <v>247</v>
@@ -4572,13 +4572,13 @@
         <v>247</v>
       </c>
       <c r="E120" t="n">
-        <v>247</v>
+        <v>246.9</v>
       </c>
       <c r="F120" t="n">
-        <v>633.3771</v>
+        <v>1681.4081</v>
       </c>
       <c r="G120" t="n">
-        <v>247.475</v>
+        <v>247.51</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>247</v>
       </c>
       <c r="F121" t="n">
-        <v>2250</v>
+        <v>633.3771</v>
       </c>
       <c r="G121" t="n">
-        <v>247.4683333333334</v>
+        <v>247.475</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>247.3</v>
+        <v>247</v>
       </c>
       <c r="C122" t="n">
-        <v>247.3</v>
+        <v>247</v>
       </c>
       <c r="D122" t="n">
-        <v>247.3</v>
+        <v>247</v>
       </c>
       <c r="E122" t="n">
-        <v>247.3</v>
+        <v>247</v>
       </c>
       <c r="F122" t="n">
-        <v>355.8671</v>
+        <v>2250</v>
       </c>
       <c r="G122" t="n">
-        <v>247.4533333333333</v>
+        <v>247.4683333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>247</v>
+        <v>247.3</v>
       </c>
       <c r="C123" t="n">
-        <v>247</v>
+        <v>247.3</v>
       </c>
       <c r="D123" t="n">
-        <v>247</v>
+        <v>247.3</v>
       </c>
       <c r="E123" t="n">
-        <v>247</v>
+        <v>247.3</v>
       </c>
       <c r="F123" t="n">
-        <v>465.2148</v>
+        <v>355.8671</v>
       </c>
       <c r="G123" t="n">
-        <v>247.4433333333333</v>
+        <v>247.4533333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>246.3</v>
+        <v>247</v>
       </c>
       <c r="C124" t="n">
         <v>247</v>
@@ -4712,13 +4712,13 @@
         <v>247</v>
       </c>
       <c r="E124" t="n">
-        <v>246.3</v>
+        <v>247</v>
       </c>
       <c r="F124" t="n">
-        <v>38</v>
+        <v>465.2148</v>
       </c>
       <c r="G124" t="n">
-        <v>247.44</v>
+        <v>247.4433333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>247.3</v>
+        <v>246.3</v>
       </c>
       <c r="C125" t="n">
-        <v>247.3</v>
+        <v>247</v>
       </c>
       <c r="D125" t="n">
-        <v>247.4</v>
+        <v>247</v>
       </c>
       <c r="E125" t="n">
-        <v>247.3</v>
+        <v>246.3</v>
       </c>
       <c r="F125" t="n">
-        <v>5545</v>
+        <v>38</v>
       </c>
       <c r="G125" t="n">
-        <v>247.4433333333333</v>
+        <v>247.44</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4779,16 +4779,16 @@
         <v>247.3</v>
       </c>
       <c r="D126" t="n">
-        <v>247.3</v>
+        <v>247.4</v>
       </c>
       <c r="E126" t="n">
         <v>247.3</v>
       </c>
       <c r="F126" t="n">
-        <v>883</v>
+        <v>5545</v>
       </c>
       <c r="G126" t="n">
-        <v>247.4466666666666</v>
+        <v>247.4433333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>246.4</v>
+        <v>247.3</v>
       </c>
       <c r="C127" t="n">
-        <v>246.4</v>
+        <v>247.3</v>
       </c>
       <c r="D127" t="n">
-        <v>246.4</v>
+        <v>247.3</v>
       </c>
       <c r="E127" t="n">
-        <v>246.4</v>
+        <v>247.3</v>
       </c>
       <c r="F127" t="n">
-        <v>393.1201</v>
+        <v>883</v>
       </c>
       <c r="G127" t="n">
-        <v>247.4349999999999</v>
+        <v>247.4466666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>247</v>
+        <v>246.4</v>
       </c>
       <c r="C128" t="n">
-        <v>246</v>
+        <v>246.4</v>
       </c>
       <c r="D128" t="n">
-        <v>247</v>
+        <v>246.4</v>
       </c>
       <c r="E128" t="n">
-        <v>246</v>
+        <v>246.4</v>
       </c>
       <c r="F128" t="n">
-        <v>891401.7129</v>
+        <v>393.1201</v>
       </c>
       <c r="G128" t="n">
-        <v>247.4166666666666</v>
+        <v>247.4349999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C129" t="n">
-        <v>244.7</v>
+        <v>246</v>
       </c>
       <c r="D129" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E129" t="n">
-        <v>244.7</v>
+        <v>246</v>
       </c>
       <c r="F129" t="n">
-        <v>4283.8988</v>
+        <v>891401.7129</v>
       </c>
       <c r="G129" t="n">
-        <v>247.3766666666666</v>
+        <v>247.4166666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>244.6</v>
+        <v>245</v>
       </c>
       <c r="C130" t="n">
-        <v>244.2</v>
+        <v>244.7</v>
       </c>
       <c r="D130" t="n">
-        <v>244.6</v>
+        <v>245</v>
       </c>
       <c r="E130" t="n">
-        <v>244.2</v>
+        <v>244.7</v>
       </c>
       <c r="F130" t="n">
-        <v>2110.052</v>
+        <v>4283.8988</v>
       </c>
       <c r="G130" t="n">
-        <v>247.325</v>
+        <v>247.3766666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>244.8</v>
+        <v>244.6</v>
       </c>
       <c r="C131" t="n">
-        <v>244.7</v>
+        <v>244.2</v>
       </c>
       <c r="D131" t="n">
-        <v>244.8</v>
+        <v>244.6</v>
       </c>
       <c r="E131" t="n">
-        <v>244.7</v>
+        <v>244.2</v>
       </c>
       <c r="F131" t="n">
-        <v>5388.137</v>
+        <v>2110.052</v>
       </c>
       <c r="G131" t="n">
-        <v>247.2733333333333</v>
+        <v>247.325</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>246.4</v>
+        <v>244.8</v>
       </c>
       <c r="C132" t="n">
-        <v>247</v>
+        <v>244.7</v>
       </c>
       <c r="D132" t="n">
-        <v>247</v>
+        <v>244.8</v>
       </c>
       <c r="E132" t="n">
-        <v>246.4</v>
+        <v>244.7</v>
       </c>
       <c r="F132" t="n">
-        <v>2025.37506072</v>
+        <v>5388.137</v>
       </c>
       <c r="G132" t="n">
-        <v>247.2583333333333</v>
+        <v>247.2733333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>245</v>
+        <v>246.4</v>
       </c>
       <c r="C133" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D133" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E133" t="n">
-        <v>245</v>
+        <v>246.4</v>
       </c>
       <c r="F133" t="n">
-        <v>5795.2385</v>
+        <v>2025.37506072</v>
       </c>
       <c r="G133" t="n">
-        <v>247.2116666666667</v>
+        <v>247.2583333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>244.7</v>
+        <v>245</v>
       </c>
       <c r="C134" t="n">
-        <v>246.2</v>
+        <v>245</v>
       </c>
       <c r="D134" t="n">
-        <v>246.2</v>
+        <v>245</v>
       </c>
       <c r="E134" t="n">
-        <v>244.7</v>
+        <v>245</v>
       </c>
       <c r="F134" t="n">
-        <v>2725.0843</v>
+        <v>5795.2385</v>
       </c>
       <c r="G134" t="n">
-        <v>247.1833333333334</v>
+        <v>247.2116666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>245</v>
+        <v>244.7</v>
       </c>
       <c r="C135" t="n">
-        <v>244.9</v>
+        <v>246.2</v>
       </c>
       <c r="D135" t="n">
-        <v>245</v>
+        <v>246.2</v>
       </c>
       <c r="E135" t="n">
-        <v>244.9</v>
+        <v>244.7</v>
       </c>
       <c r="F135" t="n">
-        <v>3160.1481</v>
+        <v>2725.0843</v>
       </c>
       <c r="G135" t="n">
-        <v>247.1366666666667</v>
+        <v>247.1833333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C136" t="n">
-        <v>246</v>
+        <v>244.9</v>
       </c>
       <c r="D136" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E136" t="n">
-        <v>246</v>
+        <v>244.9</v>
       </c>
       <c r="F136" t="n">
-        <v>6000</v>
+        <v>3160.1481</v>
       </c>
       <c r="G136" t="n">
-        <v>247.1083333333333</v>
+        <v>247.1366666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>245.5</v>
+        <v>246</v>
       </c>
       <c r="C137" t="n">
-        <v>245.5</v>
+        <v>246</v>
       </c>
       <c r="D137" t="n">
-        <v>245.5</v>
+        <v>246</v>
       </c>
       <c r="E137" t="n">
-        <v>245.5</v>
+        <v>246</v>
       </c>
       <c r="F137" t="n">
-        <v>2220.56</v>
+        <v>6000</v>
       </c>
       <c r="G137" t="n">
-        <v>247.0816666666666</v>
+        <v>247.1083333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>245.5</v>
       </c>
       <c r="F138" t="n">
-        <v>2161</v>
+        <v>2220.56</v>
       </c>
       <c r="G138" t="n">
-        <v>247.045</v>
+        <v>247.0816666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>245.5</v>
       </c>
       <c r="F139" t="n">
-        <v>2273.89</v>
+        <v>2161</v>
       </c>
       <c r="G139" t="n">
-        <v>247.0166666666666</v>
+        <v>247.045</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>245.5</v>
       </c>
       <c r="F140" t="n">
-        <v>20</v>
+        <v>2273.89</v>
       </c>
       <c r="G140" t="n">
-        <v>246.9783333333333</v>
+        <v>247.0166666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>245.6</v>
+        <v>245.5</v>
       </c>
       <c r="C141" t="n">
-        <v>245.6</v>
+        <v>245.5</v>
       </c>
       <c r="D141" t="n">
-        <v>245.6</v>
+        <v>245.5</v>
       </c>
       <c r="E141" t="n">
-        <v>245.6</v>
+        <v>245.5</v>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G141" t="n">
-        <v>246.9416666666667</v>
+        <v>246.9783333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>246</v>
+        <v>245.6</v>
       </c>
       <c r="C142" t="n">
-        <v>246</v>
+        <v>245.6</v>
       </c>
       <c r="D142" t="n">
-        <v>246</v>
+        <v>245.6</v>
       </c>
       <c r="E142" t="n">
-        <v>246</v>
+        <v>245.6</v>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G142" t="n">
-        <v>246.9083333333333</v>
+        <v>246.9416666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>246</v>
       </c>
       <c r="F143" t="n">
-        <v>165.9999</v>
+        <v>20</v>
       </c>
       <c r="G143" t="n">
-        <v>246.875</v>
+        <v>246.9083333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>246</v>
       </c>
       <c r="F144" t="n">
-        <v>63.0016</v>
+        <v>165.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>246.8366666666667</v>
+        <v>246.875</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>245.6</v>
+        <v>246</v>
       </c>
       <c r="C145" t="n">
-        <v>245.6</v>
+        <v>246</v>
       </c>
       <c r="D145" t="n">
-        <v>245.6</v>
+        <v>246</v>
       </c>
       <c r="E145" t="n">
-        <v>245.6</v>
+        <v>246</v>
       </c>
       <c r="F145" t="n">
-        <v>1271.2919</v>
+        <v>63.0016</v>
       </c>
       <c r="G145" t="n">
-        <v>246.81</v>
+        <v>246.8366666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>245.5</v>
+        <v>245.6</v>
       </c>
       <c r="C146" t="n">
-        <v>245</v>
+        <v>245.6</v>
       </c>
       <c r="D146" t="n">
-        <v>245.5</v>
+        <v>245.6</v>
       </c>
       <c r="E146" t="n">
-        <v>245</v>
+        <v>245.6</v>
       </c>
       <c r="F146" t="n">
-        <v>10401.7925</v>
+        <v>1271.2919</v>
       </c>
       <c r="G146" t="n">
-        <v>246.7633333333333</v>
+        <v>246.81</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>244.2</v>
+        <v>245.5</v>
       </c>
       <c r="C147" t="n">
-        <v>244.2</v>
+        <v>245</v>
       </c>
       <c r="D147" t="n">
-        <v>244.2</v>
+        <v>245.5</v>
       </c>
       <c r="E147" t="n">
-        <v>244.2</v>
+        <v>245</v>
       </c>
       <c r="F147" t="n">
-        <v>400</v>
+        <v>10401.7925</v>
       </c>
       <c r="G147" t="n">
-        <v>246.7033333333334</v>
+        <v>246.7633333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>244.2</v>
       </c>
       <c r="F148" t="n">
-        <v>156.5601</v>
+        <v>400</v>
       </c>
       <c r="G148" t="n">
-        <v>246.6483333333334</v>
+        <v>246.7033333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5581,19 +5581,19 @@
         <v>244.2</v>
       </c>
       <c r="C149" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="D149" t="n">
         <v>244.2</v>
       </c>
       <c r="E149" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="F149" t="n">
-        <v>10025.4845</v>
+        <v>156.5601</v>
       </c>
       <c r="G149" t="n">
-        <v>246.5900000000001</v>
+        <v>246.6483333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5616,19 +5616,19 @@
         <v>244.2</v>
       </c>
       <c r="C150" t="n">
-        <v>244.2</v>
+        <v>244</v>
       </c>
       <c r="D150" t="n">
         <v>244.2</v>
       </c>
       <c r="E150" t="n">
-        <v>244.2</v>
+        <v>244</v>
       </c>
       <c r="F150" t="n">
-        <v>1360</v>
+        <v>10025.4845</v>
       </c>
       <c r="G150" t="n">
-        <v>246.5233333333334</v>
+        <v>246.5900000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="C151" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="D151" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="E151" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="F151" t="n">
-        <v>1381.7893</v>
+        <v>1360</v>
       </c>
       <c r="G151" t="n">
-        <v>246.4533333333334</v>
+        <v>246.5233333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="C152" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="D152" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="E152" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="F152" t="n">
-        <v>78.35590000000001</v>
+        <v>1381.7893</v>
       </c>
       <c r="G152" t="n">
-        <v>246.3883333333334</v>
+        <v>246.4533333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>243.8</v>
+        <v>243.9</v>
       </c>
       <c r="C153" t="n">
-        <v>243.8</v>
+        <v>243.9</v>
       </c>
       <c r="D153" t="n">
-        <v>243.8</v>
+        <v>243.9</v>
       </c>
       <c r="E153" t="n">
-        <v>243.8</v>
+        <v>243.9</v>
       </c>
       <c r="F153" t="n">
-        <v>3261.38</v>
+        <v>78.35590000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>246.3216666666667</v>
+        <v>246.3883333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="C154" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="D154" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="E154" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="F154" t="n">
-        <v>8878.4516</v>
+        <v>3261.38</v>
       </c>
       <c r="G154" t="n">
-        <v>246.2533333333334</v>
+        <v>246.3216666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>243.8</v>
+        <v>243.7</v>
       </c>
       <c r="C155" t="n">
-        <v>243.8</v>
+        <v>243.7</v>
       </c>
       <c r="D155" t="n">
-        <v>243.8</v>
+        <v>243.7</v>
       </c>
       <c r="E155" t="n">
-        <v>243.8</v>
+        <v>243.7</v>
       </c>
       <c r="F155" t="n">
-        <v>1580.5843</v>
+        <v>8878.4516</v>
       </c>
       <c r="G155" t="n">
-        <v>246.1850000000001</v>
+        <v>246.2533333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>243.9</v>
+        <v>243.8</v>
       </c>
       <c r="C156" t="n">
-        <v>243.9</v>
+        <v>243.8</v>
       </c>
       <c r="D156" t="n">
-        <v>243.9</v>
+        <v>243.8</v>
       </c>
       <c r="E156" t="n">
-        <v>243.9</v>
+        <v>243.8</v>
       </c>
       <c r="F156" t="n">
-        <v>3438.3153</v>
+        <v>1580.5843</v>
       </c>
       <c r="G156" t="n">
-        <v>246.1183333333334</v>
+        <v>246.1850000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>243.7</v>
+        <v>243.9</v>
       </c>
       <c r="C157" t="n">
-        <v>243.7</v>
+        <v>243.9</v>
       </c>
       <c r="D157" t="n">
-        <v>243.7</v>
+        <v>243.9</v>
       </c>
       <c r="E157" t="n">
-        <v>243.7</v>
+        <v>243.9</v>
       </c>
       <c r="F157" t="n">
-        <v>271</v>
+        <v>3438.3153</v>
       </c>
       <c r="G157" t="n">
-        <v>246.0483333333334</v>
+        <v>246.1183333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>243.8</v>
+        <v>243.7</v>
       </c>
       <c r="C158" t="n">
-        <v>243.8</v>
+        <v>243.7</v>
       </c>
       <c r="D158" t="n">
-        <v>243.8</v>
+        <v>243.7</v>
       </c>
       <c r="E158" t="n">
-        <v>243.8</v>
+        <v>243.7</v>
       </c>
       <c r="F158" t="n">
-        <v>2374.5747</v>
+        <v>271</v>
       </c>
       <c r="G158" t="n">
-        <v>245.9816666666667</v>
+        <v>246.0483333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="C159" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="D159" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="E159" t="n">
-        <v>243.7</v>
+        <v>243.8</v>
       </c>
       <c r="F159" t="n">
-        <v>1744.9999</v>
+        <v>2374.5747</v>
       </c>
       <c r="G159" t="n">
-        <v>245.9133333333334</v>
+        <v>245.9816666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5975,10 +5975,10 @@
         <v>243.7</v>
       </c>
       <c r="F160" t="n">
-        <v>303.0714</v>
+        <v>1744.9999</v>
       </c>
       <c r="G160" t="n">
-        <v>245.8450000000001</v>
+        <v>245.9133333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6001,19 +6001,19 @@
         <v>243.7</v>
       </c>
       <c r="C161" t="n">
-        <v>243.6</v>
+        <v>243.7</v>
       </c>
       <c r="D161" t="n">
         <v>243.7</v>
       </c>
       <c r="E161" t="n">
-        <v>243.6</v>
+        <v>243.7</v>
       </c>
       <c r="F161" t="n">
-        <v>2469.325</v>
+        <v>303.0714</v>
       </c>
       <c r="G161" t="n">
-        <v>245.7800000000001</v>
+        <v>245.8450000000001</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6036,19 +6036,19 @@
         <v>243.7</v>
       </c>
       <c r="C162" t="n">
-        <v>243.7</v>
+        <v>243.6</v>
       </c>
       <c r="D162" t="n">
         <v>243.7</v>
       </c>
       <c r="E162" t="n">
-        <v>243.7</v>
+        <v>243.6</v>
       </c>
       <c r="F162" t="n">
-        <v>1885.9999</v>
+        <v>2469.325</v>
       </c>
       <c r="G162" t="n">
-        <v>245.7166666666668</v>
+        <v>245.7800000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6071,19 +6071,19 @@
         <v>243.7</v>
       </c>
       <c r="C163" t="n">
-        <v>243.6</v>
+        <v>243.7</v>
       </c>
       <c r="D163" t="n">
         <v>243.7</v>
       </c>
       <c r="E163" t="n">
-        <v>243.6</v>
+        <v>243.7</v>
       </c>
       <c r="F163" t="n">
-        <v>635.6913</v>
+        <v>1885.9999</v>
       </c>
       <c r="G163" t="n">
-        <v>245.6716666666668</v>
+        <v>245.7166666666668</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="C164" t="n">
         <v>243.6</v>
       </c>
-      <c r="C164" t="n">
-        <v>243.5</v>
-      </c>
       <c r="D164" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="E164" t="n">
         <v>243.6</v>
       </c>
-      <c r="E164" t="n">
-        <v>243.5</v>
-      </c>
       <c r="F164" t="n">
-        <v>2471</v>
+        <v>635.6913</v>
       </c>
       <c r="G164" t="n">
-        <v>245.6050000000002</v>
+        <v>245.6716666666668</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="C165" t="n">
         <v>243.5</v>
       </c>
-      <c r="C165" t="n">
-        <v>243</v>
-      </c>
       <c r="D165" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="E165" t="n">
         <v>243.5</v>
       </c>
-      <c r="E165" t="n">
-        <v>243</v>
-      </c>
       <c r="F165" t="n">
-        <v>18769.308</v>
+        <v>2471</v>
       </c>
       <c r="G165" t="n">
-        <v>245.5216666666668</v>
+        <v>245.6050000000002</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>243</v>
+        <v>243.5</v>
       </c>
       <c r="C166" t="n">
         <v>243</v>
       </c>
       <c r="D166" t="n">
-        <v>243</v>
+        <v>243.5</v>
       </c>
       <c r="E166" t="n">
         <v>243</v>
       </c>
       <c r="F166" t="n">
-        <v>121.6705</v>
+        <v>18769.308</v>
       </c>
       <c r="G166" t="n">
-        <v>245.4400000000002</v>
+        <v>245.5216666666668</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="C167" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="D167" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="E167" t="n">
-        <v>242.9</v>
+        <v>243</v>
       </c>
       <c r="F167" t="n">
-        <v>582.9999</v>
+        <v>121.6705</v>
       </c>
       <c r="G167" t="n">
-        <v>245.3633333333335</v>
+        <v>245.4400000000002</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>243</v>
+        <v>242.9</v>
       </c>
       <c r="C168" t="n">
         <v>242.9</v>
       </c>
       <c r="D168" t="n">
-        <v>243</v>
+        <v>242.9</v>
       </c>
       <c r="E168" t="n">
         <v>242.9</v>
       </c>
       <c r="F168" t="n">
-        <v>1594.1782</v>
+        <v>582.9999</v>
       </c>
       <c r="G168" t="n">
-        <v>245.2900000000002</v>
+        <v>245.3633333333335</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>243</v>
+      </c>
+      <c r="C169" t="n">
         <v>242.9</v>
       </c>
-      <c r="C169" t="n">
-        <v>242.7</v>
-      </c>
       <c r="D169" t="n">
+        <v>243</v>
+      </c>
+      <c r="E169" t="n">
         <v>242.9</v>
       </c>
-      <c r="E169" t="n">
-        <v>242.7</v>
-      </c>
       <c r="F169" t="n">
-        <v>2370</v>
+        <v>1594.1782</v>
       </c>
       <c r="G169" t="n">
-        <v>245.2083333333335</v>
+        <v>245.2900000000002</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,35 +6313,31 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>243.7</v>
+        <v>242.9</v>
       </c>
       <c r="C170" t="n">
-        <v>243.7</v>
+        <v>242.7</v>
       </c>
       <c r="D170" t="n">
-        <v>243.7</v>
+        <v>242.9</v>
       </c>
       <c r="E170" t="n">
-        <v>243.7</v>
+        <v>242.7</v>
       </c>
       <c r="F170" t="n">
-        <v>1282</v>
+        <v>2370</v>
       </c>
       <c r="G170" t="n">
-        <v>245.1500000000002</v>
+        <v>245.2083333333335</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="K170" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
@@ -6352,255 +6348,219 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>242.7</v>
+        <v>243.7</v>
       </c>
       <c r="C171" t="n">
-        <v>242.7</v>
+        <v>243.7</v>
       </c>
       <c r="D171" t="n">
         <v>243.7</v>
       </c>
       <c r="E171" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1282</v>
+      </c>
+      <c r="G171" t="n">
+        <v>245.1500000000002</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
         <v>242.7</v>
       </c>
-      <c r="F171" t="n">
+      <c r="C172" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D172" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F172" t="n">
         <v>1008.8888</v>
       </c>
-      <c r="G171" t="n">
+      <c r="G172" t="n">
         <v>245.0783333333335</v>
       </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="K171" t="n">
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
         <v>242.7</v>
       </c>
-      <c r="L171" t="inlineStr">
+      <c r="C173" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>843.7592</v>
+      </c>
+      <c r="G173" t="n">
+        <v>245.0200000000002</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1439.7312</v>
+      </c>
+      <c r="G174" t="n">
+        <v>244.9633333333335</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F175" t="n">
+        <v>800</v>
+      </c>
+      <c r="G175" t="n">
+        <v>244.8950000000002</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="K175" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>242.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3829.5934</v>
+      </c>
+      <c r="G176" t="n">
+        <v>244.8383333333336</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="K176" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C172" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="D172" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="E172" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="F172" t="n">
-        <v>843.7592</v>
-      </c>
-      <c r="G172" t="n">
-        <v>245.0200000000002</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="K172" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C173" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="D173" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="E173" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1439.7312</v>
-      </c>
-      <c r="G173" t="n">
-        <v>244.9633333333335</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="K173" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C174" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="D174" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="E174" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="F174" t="n">
-        <v>800</v>
-      </c>
-      <c r="G174" t="n">
-        <v>244.8950000000002</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="K174" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C175" t="n">
-        <v>243.6</v>
-      </c>
-      <c r="D175" t="n">
-        <v>243.6</v>
-      </c>
-      <c r="E175" t="n">
-        <v>242.3</v>
-      </c>
-      <c r="F175" t="n">
-        <v>3829.5934</v>
-      </c>
-      <c r="G175" t="n">
-        <v>244.8383333333336</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="K175" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>244</v>
-      </c>
-      <c r="C176" t="n">
-        <v>244</v>
-      </c>
-      <c r="D176" t="n">
-        <v>244</v>
-      </c>
-      <c r="E176" t="n">
-        <v>244</v>
-      </c>
-      <c r="F176" t="n">
-        <v>13.65983606</v>
-      </c>
-      <c r="G176" t="n">
-        <v>244.7883333333336</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>243.6</v>
-      </c>
-      <c r="K176" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6610,30 +6570,32 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>242.7</v>
+        <v>244</v>
       </c>
       <c r="C177" t="n">
-        <v>242.7</v>
+        <v>244</v>
       </c>
       <c r="D177" t="n">
-        <v>242.7</v>
+        <v>244</v>
       </c>
       <c r="E177" t="n">
-        <v>242.7</v>
+        <v>244</v>
       </c>
       <c r="F177" t="n">
-        <v>3</v>
+        <v>13.65983606</v>
       </c>
       <c r="G177" t="n">
-        <v>244.7200000000003</v>
+        <v>244.7883333333336</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>243.6</v>
+      </c>
       <c r="K177" t="n">
         <v>242.7</v>
       </c>
@@ -6663,18 +6625,20 @@
         <v>242.7</v>
       </c>
       <c r="F178" t="n">
-        <v>4036.7845</v>
+        <v>3</v>
       </c>
       <c r="G178" t="n">
-        <v>244.6533333333336</v>
+        <v>244.7200000000003</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>244</v>
+      </c>
       <c r="K178" t="n">
         <v>242.7</v>
       </c>
@@ -6704,18 +6668,20 @@
         <v>242.7</v>
       </c>
       <c r="F179" t="n">
-        <v>393.5864</v>
+        <v>4036.7845</v>
       </c>
       <c r="G179" t="n">
-        <v>244.5816666666669</v>
+        <v>244.6533333333336</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>242.7</v>
+      </c>
       <c r="K179" t="n">
         <v>242.7</v>
       </c>
@@ -6733,30 +6699,32 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>244.3</v>
+        <v>242.7</v>
       </c>
       <c r="C180" t="n">
-        <v>244.3</v>
+        <v>242.7</v>
       </c>
       <c r="D180" t="n">
-        <v>244.3</v>
+        <v>242.7</v>
       </c>
       <c r="E180" t="n">
-        <v>244.3</v>
+        <v>242.7</v>
       </c>
       <c r="F180" t="n">
-        <v>2184.6553</v>
+        <v>393.5864</v>
       </c>
       <c r="G180" t="n">
-        <v>244.5366666666669</v>
+        <v>244.5816666666669</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>242.7</v>
+      </c>
       <c r="K180" t="n">
         <v>242.7</v>
       </c>
@@ -6774,22 +6742,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>244.9</v>
+        <v>244.3</v>
       </c>
       <c r="C181" t="n">
-        <v>244.9</v>
+        <v>244.3</v>
       </c>
       <c r="D181" t="n">
-        <v>244.9</v>
+        <v>244.3</v>
       </c>
       <c r="E181" t="n">
-        <v>244.9</v>
+        <v>244.3</v>
       </c>
       <c r="F181" t="n">
-        <v>5</v>
+        <v>2184.6553</v>
       </c>
       <c r="G181" t="n">
-        <v>244.5016666666669</v>
+        <v>244.5366666666669</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6815,22 +6783,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>244</v>
+        <v>244.9</v>
       </c>
       <c r="C182" t="n">
-        <v>244</v>
+        <v>244.9</v>
       </c>
       <c r="D182" t="n">
-        <v>244</v>
+        <v>244.9</v>
       </c>
       <c r="E182" t="n">
-        <v>244</v>
+        <v>244.9</v>
       </c>
       <c r="F182" t="n">
-        <v>1092.3</v>
+        <v>5</v>
       </c>
       <c r="G182" t="n">
-        <v>244.4466666666669</v>
+        <v>244.5016666666669</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6856,22 +6824,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>243.7</v>
+        <v>244</v>
       </c>
       <c r="C183" t="n">
-        <v>243.7</v>
+        <v>244</v>
       </c>
       <c r="D183" t="n">
-        <v>243.7</v>
+        <v>244</v>
       </c>
       <c r="E183" t="n">
-        <v>243.7</v>
+        <v>244</v>
       </c>
       <c r="F183" t="n">
-        <v>3179.6237</v>
+        <v>1092.3</v>
       </c>
       <c r="G183" t="n">
-        <v>244.3916666666669</v>
+        <v>244.4466666666669</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6909,10 +6877,10 @@
         <v>243.7</v>
       </c>
       <c r="F184" t="n">
-        <v>277.4832</v>
+        <v>3179.6237</v>
       </c>
       <c r="G184" t="n">
-        <v>244.336666666667</v>
+        <v>244.3916666666669</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6941,19 +6909,19 @@
         <v>243.7</v>
       </c>
       <c r="C185" t="n">
-        <v>245.2</v>
+        <v>243.7</v>
       </c>
       <c r="D185" t="n">
-        <v>246.2</v>
+        <v>243.7</v>
       </c>
       <c r="E185" t="n">
         <v>243.7</v>
       </c>
       <c r="F185" t="n">
-        <v>13452.76609163</v>
+        <v>277.4832</v>
       </c>
       <c r="G185" t="n">
-        <v>244.301666666667</v>
+        <v>244.336666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6979,22 +6947,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>244.2</v>
+        <v>243.7</v>
       </c>
       <c r="C186" t="n">
-        <v>244.2</v>
+        <v>245.2</v>
       </c>
       <c r="D186" t="n">
-        <v>244.2</v>
+        <v>246.2</v>
       </c>
       <c r="E186" t="n">
-        <v>244.2</v>
+        <v>243.7</v>
       </c>
       <c r="F186" t="n">
-        <v>1957.9521</v>
+        <v>13452.76609163</v>
       </c>
       <c r="G186" t="n">
-        <v>244.2500000000003</v>
+        <v>244.301666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7020,22 +6988,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="C187" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="D187" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="E187" t="n">
-        <v>244</v>
+        <v>244.2</v>
       </c>
       <c r="F187" t="n">
-        <v>12887.0405</v>
+        <v>1957.9521</v>
       </c>
       <c r="G187" t="n">
-        <v>244.2100000000003</v>
+        <v>244.2500000000003</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7073,10 +7041,10 @@
         <v>244</v>
       </c>
       <c r="F188" t="n">
-        <v>356.1068</v>
+        <v>12887.0405</v>
       </c>
       <c r="G188" t="n">
-        <v>244.176666666667</v>
+        <v>244.2100000000003</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7114,10 +7082,10 @@
         <v>244</v>
       </c>
       <c r="F189" t="n">
-        <v>2000</v>
+        <v>356.1068</v>
       </c>
       <c r="G189" t="n">
-        <v>244.1650000000003</v>
+        <v>244.176666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7143,22 +7111,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="C190" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="D190" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="E190" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="F190" t="n">
-        <v>2389.3</v>
+        <v>2000</v>
       </c>
       <c r="G190" t="n">
-        <v>244.1600000000003</v>
+        <v>244.1650000000003</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7196,10 +7164,10 @@
         <v>243.9</v>
       </c>
       <c r="F191" t="n">
-        <v>2798.2</v>
+        <v>2389.3</v>
       </c>
       <c r="G191" t="n">
-        <v>244.146666666667</v>
+        <v>244.1600000000003</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7237,10 +7205,10 @@
         <v>243.9</v>
       </c>
       <c r="F192" t="n">
-        <v>1753.2463</v>
+        <v>2798.2</v>
       </c>
       <c r="G192" t="n">
-        <v>244.0950000000003</v>
+        <v>244.146666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7278,10 +7246,10 @@
         <v>243.9</v>
       </c>
       <c r="F193" t="n">
-        <v>627.7127</v>
+        <v>1753.2463</v>
       </c>
       <c r="G193" t="n">
-        <v>244.0766666666669</v>
+        <v>244.0950000000003</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7319,10 +7287,10 @@
         <v>243.9</v>
       </c>
       <c r="F194" t="n">
-        <v>1390.5836</v>
+        <v>627.7127</v>
       </c>
       <c r="G194" t="n">
-        <v>244.0383333333336</v>
+        <v>244.0766666666669</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7360,10 +7328,10 @@
         <v>243.9</v>
       </c>
       <c r="F195" t="n">
-        <v>1228.8667</v>
+        <v>1390.5836</v>
       </c>
       <c r="G195" t="n">
-        <v>244.0216666666669</v>
+        <v>244.0383333333336</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7401,10 +7369,10 @@
         <v>243.9</v>
       </c>
       <c r="F196" t="n">
-        <v>265.7824</v>
+        <v>1228.8667</v>
       </c>
       <c r="G196" t="n">
-        <v>243.9866666666669</v>
+        <v>244.0216666666669</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7433,19 +7401,19 @@
         <v>243.9</v>
       </c>
       <c r="C197" t="n">
-        <v>244</v>
+        <v>243.9</v>
       </c>
       <c r="D197" t="n">
-        <v>244</v>
+        <v>243.9</v>
       </c>
       <c r="E197" t="n">
         <v>243.9</v>
       </c>
       <c r="F197" t="n">
-        <v>3223.2259</v>
+        <v>265.7824</v>
       </c>
       <c r="G197" t="n">
-        <v>243.9616666666669</v>
+        <v>243.9866666666669</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7474,19 +7442,19 @@
         <v>243.9</v>
       </c>
       <c r="C198" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="D198" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="E198" t="n">
         <v>243.9</v>
       </c>
       <c r="F198" t="n">
-        <v>8829.949000000001</v>
+        <v>3223.2259</v>
       </c>
       <c r="G198" t="n">
-        <v>243.9350000000003</v>
+        <v>243.9616666666669</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7524,10 +7492,10 @@
         <v>243.9</v>
       </c>
       <c r="F199" t="n">
-        <v>132.0921</v>
+        <v>8829.949000000001</v>
       </c>
       <c r="G199" t="n">
-        <v>243.9083333333336</v>
+        <v>243.9350000000003</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7565,10 +7533,10 @@
         <v>243.9</v>
       </c>
       <c r="F200" t="n">
-        <v>1771.0733</v>
+        <v>132.0921</v>
       </c>
       <c r="G200" t="n">
-        <v>243.8816666666669</v>
+        <v>243.9083333333336</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7606,10 +7574,10 @@
         <v>243.9</v>
       </c>
       <c r="F201" t="n">
-        <v>121.9207</v>
+        <v>1771.0733</v>
       </c>
       <c r="G201" t="n">
-        <v>243.8533333333336</v>
+        <v>243.8816666666669</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7635,22 +7603,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>244.2</v>
+        <v>243.9</v>
       </c>
       <c r="C202" t="n">
-        <v>244.9</v>
+        <v>243.9</v>
       </c>
       <c r="D202" t="n">
-        <v>244.9</v>
+        <v>243.9</v>
       </c>
       <c r="E202" t="n">
-        <v>244.2</v>
+        <v>243.9</v>
       </c>
       <c r="F202" t="n">
-        <v>14.29154785</v>
+        <v>121.9207</v>
       </c>
       <c r="G202" t="n">
-        <v>243.8350000000002</v>
+        <v>243.8533333333336</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7676,22 +7644,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>245</v>
+        <v>244.2</v>
       </c>
       <c r="C203" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="D203" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="E203" t="n">
-        <v>245</v>
+        <v>244.2</v>
       </c>
       <c r="F203" t="n">
-        <v>18.13877551</v>
+        <v>14.29154785</v>
       </c>
       <c r="G203" t="n">
-        <v>243.8183333333336</v>
+        <v>243.8350000000002</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7717,22 +7685,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>243.9</v>
+        <v>245</v>
       </c>
       <c r="C204" t="n">
-        <v>243.9</v>
+        <v>245</v>
       </c>
       <c r="D204" t="n">
-        <v>243.9</v>
+        <v>245</v>
       </c>
       <c r="E204" t="n">
-        <v>243.9</v>
+        <v>245</v>
       </c>
       <c r="F204" t="n">
-        <v>684.6018</v>
+        <v>18.13877551</v>
       </c>
       <c r="G204" t="n">
-        <v>243.7833333333336</v>
+        <v>243.8183333333336</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7758,22 +7726,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>244.9</v>
+        <v>243.9</v>
       </c>
       <c r="C205" t="n">
-        <v>244.9</v>
+        <v>243.9</v>
       </c>
       <c r="D205" t="n">
-        <v>244.9</v>
+        <v>243.9</v>
       </c>
       <c r="E205" t="n">
-        <v>244.9</v>
+        <v>243.9</v>
       </c>
       <c r="F205" t="n">
-        <v>1000</v>
+        <v>684.6018</v>
       </c>
       <c r="G205" t="n">
-        <v>243.7716666666669</v>
+        <v>243.7833333333336</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7799,22 +7767,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="C206" t="n">
-        <v>245.1</v>
+        <v>244.9</v>
       </c>
       <c r="D206" t="n">
-        <v>246</v>
+        <v>244.9</v>
       </c>
       <c r="E206" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="F206" t="n">
-        <v>15342.45781593</v>
+        <v>1000</v>
       </c>
       <c r="G206" t="n">
-        <v>243.7733333333335</v>
+        <v>243.7716666666669</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7840,22 +7808,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>243.9</v>
+        <v>245</v>
       </c>
       <c r="C207" t="n">
-        <v>243.9</v>
+        <v>245.1</v>
       </c>
       <c r="D207" t="n">
-        <v>243.9</v>
+        <v>246</v>
       </c>
       <c r="E207" t="n">
-        <v>243.9</v>
+        <v>245</v>
       </c>
       <c r="F207" t="n">
-        <v>6414.5301</v>
+        <v>15342.45781593</v>
       </c>
       <c r="G207" t="n">
-        <v>243.7683333333335</v>
+        <v>243.7733333333335</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7881,19 +7849,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>244.2</v>
+        <v>243.9</v>
       </c>
       <c r="C208" t="n">
-        <v>244.2</v>
+        <v>243.9</v>
       </c>
       <c r="D208" t="n">
-        <v>244.2</v>
+        <v>243.9</v>
       </c>
       <c r="E208" t="n">
-        <v>244.2</v>
+        <v>243.9</v>
       </c>
       <c r="F208" t="n">
-        <v>1396.7</v>
+        <v>6414.5301</v>
       </c>
       <c r="G208" t="n">
         <v>243.7683333333335</v>
@@ -7922,22 +7890,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>245.2</v>
+        <v>244.2</v>
       </c>
       <c r="C209" t="n">
-        <v>245.2</v>
+        <v>244.2</v>
       </c>
       <c r="D209" t="n">
-        <v>245.2</v>
+        <v>244.2</v>
       </c>
       <c r="E209" t="n">
-        <v>245.2</v>
+        <v>244.2</v>
       </c>
       <c r="F209" t="n">
-        <v>4399.4571</v>
+        <v>1396.7</v>
       </c>
       <c r="G209" t="n">
-        <v>243.7883333333335</v>
+        <v>243.7683333333335</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7963,22 +7931,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>244.3</v>
+        <v>245.2</v>
       </c>
       <c r="C210" t="n">
-        <v>244.3</v>
+        <v>245.2</v>
       </c>
       <c r="D210" t="n">
-        <v>244.3</v>
+        <v>245.2</v>
       </c>
       <c r="E210" t="n">
-        <v>244.3</v>
+        <v>245.2</v>
       </c>
       <c r="F210" t="n">
-        <v>8462.84</v>
+        <v>4399.4571</v>
       </c>
       <c r="G210" t="n">
-        <v>243.7900000000002</v>
+        <v>243.7883333333335</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8016,10 +7984,10 @@
         <v>244.3</v>
       </c>
       <c r="F211" t="n">
-        <v>800</v>
+        <v>8462.84</v>
       </c>
       <c r="G211" t="n">
-        <v>243.7950000000002</v>
+        <v>243.7900000000002</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8045,22 +8013,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>244</v>
+        <v>244.3</v>
       </c>
       <c r="C212" t="n">
-        <v>244</v>
+        <v>244.3</v>
       </c>
       <c r="D212" t="n">
-        <v>244</v>
+        <v>244.3</v>
       </c>
       <c r="E212" t="n">
-        <v>244</v>
+        <v>244.3</v>
       </c>
       <c r="F212" t="n">
-        <v>5458.5907</v>
+        <v>800</v>
       </c>
       <c r="G212" t="n">
-        <v>243.7966666666668</v>
+        <v>243.7950000000002</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8086,19 +8054,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="C213" t="n">
-        <v>243.8</v>
+        <v>244</v>
       </c>
       <c r="D213" t="n">
-        <v>243.9</v>
+        <v>244</v>
       </c>
       <c r="E213" t="n">
-        <v>243.8</v>
+        <v>244</v>
       </c>
       <c r="F213" t="n">
-        <v>3377.3033</v>
+        <v>5458.5907</v>
       </c>
       <c r="G213" t="n">
         <v>243.7966666666668</v>
@@ -8127,22 +8095,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>244.9</v>
+        <v>243.9</v>
       </c>
       <c r="C214" t="n">
-        <v>244.9</v>
+        <v>243.8</v>
       </c>
       <c r="D214" t="n">
-        <v>244.9</v>
+        <v>243.9</v>
       </c>
       <c r="E214" t="n">
-        <v>244.9</v>
+        <v>243.8</v>
       </c>
       <c r="F214" t="n">
-        <v>2.0417</v>
+        <v>3377.3033</v>
       </c>
       <c r="G214" t="n">
-        <v>243.8166666666668</v>
+        <v>243.7966666666668</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8168,22 +8136,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="C215" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="D215" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="E215" t="n">
-        <v>245</v>
+        <v>244.9</v>
       </c>
       <c r="F215" t="n">
-        <v>464.6232</v>
+        <v>2.0417</v>
       </c>
       <c r="G215" t="n">
-        <v>243.8366666666668</v>
+        <v>243.8166666666668</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8221,10 +8189,10 @@
         <v>245</v>
       </c>
       <c r="F216" t="n">
-        <v>1000</v>
+        <v>464.6232</v>
       </c>
       <c r="G216" t="n">
-        <v>243.8550000000002</v>
+        <v>243.8366666666668</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8262,10 +8230,10 @@
         <v>245</v>
       </c>
       <c r="F217" t="n">
-        <v>299.9099</v>
+        <v>1000</v>
       </c>
       <c r="G217" t="n">
-        <v>243.8766666666668</v>
+        <v>243.8550000000002</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8303,10 +8271,10 @@
         <v>245</v>
       </c>
       <c r="F218" t="n">
-        <v>2115.6346</v>
+        <v>299.9099</v>
       </c>
       <c r="G218" t="n">
-        <v>243.8966666666668</v>
+        <v>243.8766666666668</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8335,19 +8303,19 @@
         <v>245</v>
       </c>
       <c r="C219" t="n">
-        <v>244.1</v>
+        <v>245</v>
       </c>
       <c r="D219" t="n">
         <v>245</v>
       </c>
       <c r="E219" t="n">
-        <v>244.1</v>
+        <v>245</v>
       </c>
       <c r="F219" t="n">
-        <v>696.9813</v>
+        <v>2115.6346</v>
       </c>
       <c r="G219" t="n">
-        <v>243.9033333333335</v>
+        <v>243.8966666666668</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8376,19 +8344,19 @@
         <v>245</v>
       </c>
       <c r="C220" t="n">
-        <v>245.1</v>
+        <v>244.1</v>
       </c>
       <c r="D220" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="E220" t="n">
-        <v>245</v>
+        <v>244.1</v>
       </c>
       <c r="F220" t="n">
-        <v>332.824</v>
+        <v>696.9813</v>
       </c>
       <c r="G220" t="n">
-        <v>243.9266666666668</v>
+        <v>243.9033333333335</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8414,7 +8382,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="C221" t="n">
         <v>245.1</v>
@@ -8423,13 +8391,13 @@
         <v>245.1</v>
       </c>
       <c r="E221" t="n">
-        <v>245.1</v>
+        <v>245</v>
       </c>
       <c r="F221" t="n">
-        <v>348.3131</v>
+        <v>332.824</v>
       </c>
       <c r="G221" t="n">
-        <v>243.9516666666668</v>
+        <v>243.9266666666668</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8455,22 +8423,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>245.2</v>
+        <v>245.1</v>
       </c>
       <c r="C222" t="n">
-        <v>245.2</v>
+        <v>245.1</v>
       </c>
       <c r="D222" t="n">
-        <v>245.2</v>
+        <v>245.1</v>
       </c>
       <c r="E222" t="n">
-        <v>245.2</v>
+        <v>245.1</v>
       </c>
       <c r="F222" t="n">
-        <v>2475.2199</v>
+        <v>348.3131</v>
       </c>
       <c r="G222" t="n">
-        <v>243.9766666666668</v>
+        <v>243.9516666666668</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8508,10 +8476,10 @@
         <v>245.2</v>
       </c>
       <c r="F223" t="n">
-        <v>378.7962</v>
+        <v>2475.2199</v>
       </c>
       <c r="G223" t="n">
-        <v>244.0033333333335</v>
+        <v>243.9766666666668</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8537,22 +8505,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>244.4</v>
+        <v>245.2</v>
       </c>
       <c r="C224" t="n">
-        <v>244.3</v>
+        <v>245.2</v>
       </c>
       <c r="D224" t="n">
-        <v>244.4</v>
+        <v>245.2</v>
       </c>
       <c r="E224" t="n">
-        <v>244.3</v>
+        <v>245.2</v>
       </c>
       <c r="F224" t="n">
-        <v>1250.5265</v>
+        <v>378.7962</v>
       </c>
       <c r="G224" t="n">
-        <v>244.0166666666668</v>
+        <v>244.0033333333335</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8578,22 +8546,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>245.2</v>
+        <v>244.4</v>
       </c>
       <c r="C225" t="n">
-        <v>245.2</v>
+        <v>244.3</v>
       </c>
       <c r="D225" t="n">
-        <v>245.2</v>
+        <v>244.4</v>
       </c>
       <c r="E225" t="n">
-        <v>245.2</v>
+        <v>244.3</v>
       </c>
       <c r="F225" t="n">
-        <v>2.1</v>
+        <v>1250.5265</v>
       </c>
       <c r="G225" t="n">
-        <v>244.0533333333335</v>
+        <v>244.0166666666668</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8622,19 +8590,19 @@
         <v>245.2</v>
       </c>
       <c r="C226" t="n">
-        <v>245.1</v>
+        <v>245.2</v>
       </c>
       <c r="D226" t="n">
         <v>245.2</v>
       </c>
       <c r="E226" t="n">
-        <v>245.1</v>
+        <v>245.2</v>
       </c>
       <c r="F226" t="n">
-        <v>478.8613</v>
+        <v>2.1</v>
       </c>
       <c r="G226" t="n">
-        <v>244.0883333333335</v>
+        <v>244.0533333333335</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8660,10 +8628,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="C227" t="n">
         <v>245.1</v>
-      </c>
-      <c r="C227" t="n">
-        <v>245.2</v>
       </c>
       <c r="D227" t="n">
         <v>245.2</v>
@@ -8672,10 +8640,10 @@
         <v>245.1</v>
       </c>
       <c r="F227" t="n">
-        <v>25399.6818</v>
+        <v>478.8613</v>
       </c>
       <c r="G227" t="n">
-        <v>244.1266666666669</v>
+        <v>244.0883333333335</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8701,7 +8669,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>245.2</v>
+        <v>245.1</v>
       </c>
       <c r="C228" t="n">
         <v>245.2</v>
@@ -8710,13 +8678,13 @@
         <v>245.2</v>
       </c>
       <c r="E228" t="n">
-        <v>245.2</v>
+        <v>245.1</v>
       </c>
       <c r="F228" t="n">
-        <v>489.646</v>
+        <v>25399.6818</v>
       </c>
       <c r="G228" t="n">
-        <v>244.1650000000002</v>
+        <v>244.1266666666669</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8754,10 +8722,10 @@
         <v>245.2</v>
       </c>
       <c r="F229" t="n">
-        <v>2579.3963</v>
+        <v>489.646</v>
       </c>
       <c r="G229" t="n">
-        <v>244.2066666666669</v>
+        <v>244.1650000000002</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8783,22 +8751,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>245.8</v>
+        <v>245.2</v>
       </c>
       <c r="C230" t="n">
-        <v>245.8</v>
+        <v>245.2</v>
       </c>
       <c r="D230" t="n">
-        <v>245.8</v>
+        <v>245.2</v>
       </c>
       <c r="E230" t="n">
-        <v>245.8</v>
+        <v>245.2</v>
       </c>
       <c r="F230" t="n">
-        <v>329.1922</v>
+        <v>2579.3963</v>
       </c>
       <c r="G230" t="n">
-        <v>244.2416666666668</v>
+        <v>244.2066666666669</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8836,10 +8804,10 @@
         <v>245.8</v>
       </c>
       <c r="F231" t="n">
-        <v>428.2818</v>
+        <v>329.1922</v>
       </c>
       <c r="G231" t="n">
-        <v>244.2933333333335</v>
+        <v>244.2416666666668</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8877,10 +8845,10 @@
         <v>245.8</v>
       </c>
       <c r="F232" t="n">
-        <v>242.526</v>
+        <v>428.2818</v>
       </c>
       <c r="G232" t="n">
-        <v>244.3450000000001</v>
+        <v>244.2933333333335</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8906,22 +8874,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>246.4</v>
+        <v>245.8</v>
       </c>
       <c r="C233" t="n">
-        <v>246.6</v>
+        <v>245.8</v>
       </c>
       <c r="D233" t="n">
-        <v>246.6</v>
+        <v>245.8</v>
       </c>
       <c r="E233" t="n">
-        <v>246.4</v>
+        <v>245.8</v>
       </c>
       <c r="F233" t="n">
-        <v>5420.1344</v>
+        <v>242.526</v>
       </c>
       <c r="G233" t="n">
-        <v>244.4100000000001</v>
+        <v>244.3450000000001</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8947,22 +8915,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>247</v>
+        <v>246.4</v>
       </c>
       <c r="C234" t="n">
-        <v>247.5</v>
+        <v>246.6</v>
       </c>
       <c r="D234" t="n">
-        <v>247.5</v>
+        <v>246.6</v>
       </c>
       <c r="E234" t="n">
-        <v>247</v>
+        <v>246.4</v>
       </c>
       <c r="F234" t="n">
-        <v>139</v>
+        <v>5420.1344</v>
       </c>
       <c r="G234" t="n">
-        <v>244.4900000000001</v>
+        <v>244.4100000000001</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8988,22 +8956,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>247</v>
+      </c>
+      <c r="C235" t="n">
         <v>247.5</v>
       </c>
-      <c r="C235" t="n">
-        <v>249</v>
-      </c>
       <c r="D235" t="n">
-        <v>249</v>
+        <v>247.5</v>
       </c>
       <c r="E235" t="n">
-        <v>247.5</v>
+        <v>247</v>
       </c>
       <c r="F235" t="n">
-        <v>1905.2032</v>
+        <v>139</v>
       </c>
       <c r="G235" t="n">
-        <v>244.5800000000001</v>
+        <v>244.4900000000001</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9029,28 +8997,28 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>248.5</v>
+        <v>247.5</v>
       </c>
       <c r="C236" t="n">
-        <v>248.5</v>
+        <v>249</v>
       </c>
       <c r="D236" t="n">
-        <v>248.5</v>
+        <v>249</v>
       </c>
       <c r="E236" t="n">
-        <v>247.3</v>
+        <v>247.5</v>
       </c>
       <c r="F236" t="n">
-        <v>7498.7705</v>
+        <v>1905.2032</v>
       </c>
       <c r="G236" t="n">
-        <v>244.6550000000001</v>
+        <v>244.5800000000001</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
@@ -9058,11 +9026,11 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>1</v>
+        <v>1.020957972805933</v>
       </c>
     </row>
     <row r="237">
@@ -9070,38 +9038,32 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>248.8</v>
+        <v>248.5</v>
       </c>
       <c r="C237" t="n">
-        <v>249</v>
+        <v>248.5</v>
       </c>
       <c r="D237" t="n">
-        <v>249.1</v>
+        <v>248.5</v>
       </c>
       <c r="E237" t="n">
-        <v>248.8</v>
+        <v>247.3</v>
       </c>
       <c r="F237" t="n">
-        <v>52549.5764</v>
+        <v>7498.7705</v>
       </c>
       <c r="G237" t="n">
-        <v>244.7600000000001</v>
+        <v>244.6550000000001</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9111,38 +9073,32 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>249</v>
+        <v>248.8</v>
       </c>
       <c r="C238" t="n">
         <v>249</v>
       </c>
       <c r="D238" t="n">
-        <v>249</v>
+        <v>249.1</v>
       </c>
       <c r="E238" t="n">
-        <v>249</v>
+        <v>248.8</v>
       </c>
       <c r="F238" t="n">
-        <v>7253.0842</v>
+        <v>52549.5764</v>
       </c>
       <c r="G238" t="n">
-        <v>244.8650000000001</v>
+        <v>244.7600000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9164,26 +9120,20 @@
         <v>249</v>
       </c>
       <c r="F239" t="n">
-        <v>10996.2088</v>
+        <v>7253.0842</v>
       </c>
       <c r="G239" t="n">
-        <v>244.9700000000001</v>
+        <v>244.8650000000001</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9193,38 +9143,32 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>249.5</v>
+        <v>249</v>
       </c>
       <c r="C240" t="n">
-        <v>249.5</v>
+        <v>249</v>
       </c>
       <c r="D240" t="n">
-        <v>249.5</v>
+        <v>249</v>
       </c>
       <c r="E240" t="n">
-        <v>249.5</v>
+        <v>249</v>
       </c>
       <c r="F240" t="n">
-        <v>954.1999</v>
+        <v>10996.2088</v>
       </c>
       <c r="G240" t="n">
-        <v>245.0566666666668</v>
+        <v>244.9700000000001</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9234,22 +9178,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="C241" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="D241" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="E241" t="n">
-        <v>249.6</v>
+        <v>249.5</v>
       </c>
       <c r="F241" t="n">
-        <v>800</v>
+        <v>954.1999</v>
       </c>
       <c r="G241" t="n">
-        <v>245.1350000000001</v>
+        <v>245.0566666666668</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9258,14 +9202,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9275,22 +9213,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>249.8</v>
+        <v>249.6</v>
       </c>
       <c r="C242" t="n">
-        <v>249.8</v>
+        <v>249.6</v>
       </c>
       <c r="D242" t="n">
-        <v>249.8</v>
+        <v>249.6</v>
       </c>
       <c r="E242" t="n">
-        <v>249.8</v>
+        <v>249.6</v>
       </c>
       <c r="F242" t="n">
-        <v>1276.9526</v>
+        <v>800</v>
       </c>
       <c r="G242" t="n">
-        <v>245.2316666666667</v>
+        <v>245.1350000000001</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9299,14 +9237,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9316,22 +9248,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>250</v>
+        <v>249.8</v>
       </c>
       <c r="C243" t="n">
-        <v>249</v>
+        <v>249.8</v>
       </c>
       <c r="D243" t="n">
-        <v>250</v>
+        <v>249.8</v>
       </c>
       <c r="E243" t="n">
-        <v>249</v>
+        <v>249.8</v>
       </c>
       <c r="F243" t="n">
-        <v>10291.9436</v>
+        <v>1276.9526</v>
       </c>
       <c r="G243" t="n">
-        <v>245.3200000000001</v>
+        <v>245.2316666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9340,14 +9272,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9357,22 +9283,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C244" t="n">
         <v>249</v>
       </c>
       <c r="D244" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E244" t="n">
         <v>249</v>
       </c>
       <c r="F244" t="n">
-        <v>1431</v>
+        <v>10291.9436</v>
       </c>
       <c r="G244" t="n">
-        <v>245.4083333333334</v>
+        <v>245.3200000000001</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9381,14 +9307,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9410,10 +9330,10 @@
         <v>249</v>
       </c>
       <c r="F245" t="n">
-        <v>4999.9999016</v>
+        <v>1431</v>
       </c>
       <c r="G245" t="n">
-        <v>245.4716666666667</v>
+        <v>245.4083333333334</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9422,14 +9342,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9442,19 +9356,19 @@
         <v>249</v>
       </c>
       <c r="C246" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="D246" t="n">
         <v>249</v>
       </c>
       <c r="E246" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="F246" t="n">
-        <v>1178.44326524</v>
+        <v>4999.9999016</v>
       </c>
       <c r="G246" t="n">
-        <v>245.55</v>
+        <v>245.4716666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9463,14 +9377,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9480,22 +9388,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="C247" t="n">
         <v>248.9</v>
       </c>
       <c r="D247" t="n">
-        <v>248.9</v>
+        <v>249</v>
       </c>
       <c r="E247" t="n">
         <v>248.9</v>
       </c>
       <c r="F247" t="n">
-        <v>138.6825</v>
+        <v>1178.44326524</v>
       </c>
       <c r="G247" t="n">
-        <v>245.6316666666667</v>
+        <v>245.55</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9504,14 +9412,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9533,10 +9435,10 @@
         <v>248.9</v>
       </c>
       <c r="F248" t="n">
-        <v>1459.4378</v>
+        <v>138.6825</v>
       </c>
       <c r="G248" t="n">
-        <v>245.7133333333333</v>
+        <v>245.6316666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9545,14 +9447,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9562,22 +9458,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>248.8</v>
+        <v>248.9</v>
       </c>
       <c r="C249" t="n">
-        <v>249</v>
+        <v>248.9</v>
       </c>
       <c r="D249" t="n">
-        <v>249</v>
+        <v>248.9</v>
       </c>
       <c r="E249" t="n">
-        <v>248.8</v>
+        <v>248.9</v>
       </c>
       <c r="F249" t="n">
-        <v>45045.59753316</v>
+        <v>1459.4378</v>
       </c>
       <c r="G249" t="n">
-        <v>245.7966666666667</v>
+        <v>245.7133333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9586,14 +9482,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9603,22 +9493,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>249.6</v>
+        <v>248.8</v>
       </c>
       <c r="C250" t="n">
-        <v>249.6</v>
+        <v>249</v>
       </c>
       <c r="D250" t="n">
-        <v>249.6</v>
+        <v>249</v>
       </c>
       <c r="E250" t="n">
-        <v>249.6</v>
+        <v>248.8</v>
       </c>
       <c r="F250" t="n">
-        <v>611.5272</v>
+        <v>45045.59753316</v>
       </c>
       <c r="G250" t="n">
-        <v>245.8916666666667</v>
+        <v>245.7966666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9627,14 +9517,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9656,10 +9540,10 @@
         <v>249.6</v>
       </c>
       <c r="F251" t="n">
-        <v>108</v>
+        <v>611.5272</v>
       </c>
       <c r="G251" t="n">
-        <v>245.9866666666667</v>
+        <v>245.8916666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9668,14 +9552,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9685,40 +9563,34 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>250</v>
+        <v>249.6</v>
       </c>
       <c r="C252" t="n">
-        <v>250.2</v>
+        <v>249.6</v>
       </c>
       <c r="D252" t="n">
-        <v>250.2</v>
+        <v>249.6</v>
       </c>
       <c r="E252" t="n">
-        <v>250</v>
+        <v>249.6</v>
       </c>
       <c r="F252" t="n">
-        <v>3341.5466</v>
+        <v>108</v>
       </c>
       <c r="G252" t="n">
-        <v>246.0916666666667</v>
+        <v>245.9866666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
-        <v>1.025902348578492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -9726,28 +9598,28 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>250</v>
+      </c>
+      <c r="C253" t="n">
         <v>250.2</v>
-      </c>
-      <c r="C253" t="n">
-        <v>249.2</v>
       </c>
       <c r="D253" t="n">
         <v>250.2</v>
       </c>
       <c r="E253" t="n">
-        <v>249.2</v>
+        <v>250</v>
       </c>
       <c r="F253" t="n">
-        <v>12124.32052664</v>
+        <v>3341.5466</v>
       </c>
       <c r="G253" t="n">
-        <v>246.1800000000001</v>
+        <v>246.0916666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
@@ -9761,28 +9633,28 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>249.2</v>
+        <v>250.2</v>
       </c>
       <c r="C254" t="n">
         <v>249.2</v>
       </c>
       <c r="D254" t="n">
-        <v>249.2</v>
+        <v>250.2</v>
       </c>
       <c r="E254" t="n">
         <v>249.2</v>
       </c>
       <c r="F254" t="n">
-        <v>300</v>
+        <v>12124.32052664</v>
       </c>
       <c r="G254" t="n">
-        <v>246.2683333333334</v>
+        <v>246.1800000000001</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
@@ -9796,28 +9668,28 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>249.1</v>
+        <v>249.2</v>
       </c>
       <c r="C255" t="n">
-        <v>249.1</v>
+        <v>249.2</v>
       </c>
       <c r="D255" t="n">
-        <v>249.1</v>
+        <v>249.2</v>
       </c>
       <c r="E255" t="n">
-        <v>249.1</v>
+        <v>249.2</v>
       </c>
       <c r="F255" t="n">
-        <v>165.0138</v>
+        <v>300</v>
       </c>
       <c r="G255" t="n">
-        <v>246.3550000000001</v>
+        <v>246.2683333333334</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
@@ -9831,22 +9703,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>248.2</v>
+        <v>249.1</v>
       </c>
       <c r="C256" t="n">
-        <v>248.2</v>
+        <v>249.1</v>
       </c>
       <c r="D256" t="n">
-        <v>248.2</v>
+        <v>249.1</v>
       </c>
       <c r="E256" t="n">
-        <v>248.2</v>
+        <v>249.1</v>
       </c>
       <c r="F256" t="n">
-        <v>300</v>
+        <v>165.0138</v>
       </c>
       <c r="G256" t="n">
-        <v>246.4266666666668</v>
+        <v>246.3550000000001</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9878,10 +9750,10 @@
         <v>248.2</v>
       </c>
       <c r="F257" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="G257" t="n">
-        <v>246.4966666666668</v>
+        <v>246.4266666666668</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9901,22 +9773,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>249.1</v>
+        <v>248.2</v>
       </c>
       <c r="C258" t="n">
-        <v>249.2</v>
+        <v>248.2</v>
       </c>
       <c r="D258" t="n">
-        <v>249.2</v>
+        <v>248.2</v>
       </c>
       <c r="E258" t="n">
-        <v>249.1</v>
+        <v>248.2</v>
       </c>
       <c r="F258" t="n">
-        <v>4636.3794</v>
+        <v>4000</v>
       </c>
       <c r="G258" t="n">
-        <v>246.5850000000002</v>
+        <v>246.4966666666668</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9936,22 +9808,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="C259" t="n">
         <v>249.2</v>
       </c>
-      <c r="C259" t="n">
-        <v>249.4</v>
-      </c>
       <c r="D259" t="n">
-        <v>249.4</v>
+        <v>249.2</v>
       </c>
       <c r="E259" t="n">
-        <v>249.2</v>
+        <v>249.1</v>
       </c>
       <c r="F259" t="n">
-        <v>10</v>
+        <v>4636.3794</v>
       </c>
       <c r="G259" t="n">
-        <v>246.6766666666668</v>
+        <v>246.5850000000002</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9971,22 +9843,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>250.1</v>
+        <v>249.2</v>
       </c>
       <c r="C260" t="n">
-        <v>250.1</v>
+        <v>249.4</v>
       </c>
       <c r="D260" t="n">
-        <v>250.1</v>
+        <v>249.4</v>
       </c>
       <c r="E260" t="n">
-        <v>250.1</v>
+        <v>249.2</v>
       </c>
       <c r="F260" t="n">
-        <v>447.5668</v>
+        <v>10</v>
       </c>
       <c r="G260" t="n">
-        <v>246.7800000000002</v>
+        <v>246.6766666666668</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10001,6 +9873,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="C261" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="E261" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>447.5668</v>
+      </c>
+      <c r="G261" t="n">
+        <v>246.7800000000002</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest MTL.xlsx
+++ b/BackTest/2020-01-14 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>704.6703000000016</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>684.6705000000015</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>709.1147000000016</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2011.248100000002</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2011.248100000002</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1464.914800000002</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1917.040800000002</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1917.040800000002</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2588.943300000002</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2566.943300000002</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2566.943300000002</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>4057.373600000001</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>3988.8562</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3975.4118</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3975.4118</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3979.6339</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3979.6339</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3949.1897</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3953.6341</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>3949.4119</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3951.4118</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2371.372300000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2129.299700000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2129.299700000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2282.229700000001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2074.167300000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2072.056200000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2072.056200000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2072.056200000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3116.039800000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2446.539900000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1900.376100000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1900.376100000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1916.317900000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2416.317900000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>682.803699999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>442.803699999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>243.064099999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>173.064099999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>243.064099999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>247.285899999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4660.121200000001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-12152.5679</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-12152.5679</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-15265.4645</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-15268.1598</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-15523.1598</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-257.2398000000012</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-257.2398000000012</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2182.172899999999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>2182.172899999999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>2182.172899999999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-224.0512000000012</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1490.805400000001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1465.957699999999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1465.957699999999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>21305.9075</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>21318.74344063</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>21309.82332823</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>21309.82332823</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>20894.82332823</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>24965.86042823</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>24894.76042823</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>23330.95792823</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>18330.95792823</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>18330.95792823</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>18330.95792823</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>18330.95792823</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>18330.95792823</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>25328.66382823</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>25560.73342823</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>25570.01136288</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>25019.30626288</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>26519.30626288</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>25740.45606288</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>25740.45606288</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>24740.45606288</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>24985.15606288</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>21785.15606288</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>25620.15606288</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>25620.15606288</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>25808.33496288</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>26112.77626288</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>3243.327462879995</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>3051.602062879995</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>3051.602062879995</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>3033.824462879995</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>3033.824462879995</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1153.810937120005</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1151.699837120005</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1340.397237120005</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1342.655237120005</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1344.913237120005</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-38484.52043712</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-32939.52043712</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7942,14 +7942,10 @@
         <v>-979037.0500763999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="J229" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
@@ -7979,12 +7975,12 @@
         <v>-980045.9388763999</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -8018,12 +8014,12 @@
         <v>-980045.9388763999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
         <v>242.7</v>
       </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8057,12 +8053,12 @@
         <v>-980045.9388763999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
         <v>242.7</v>
       </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8096,12 +8092,12 @@
         <v>-980045.9388763999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
         <v>242.7</v>
       </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8135,14 +8131,12 @@
         <v>-976216.3454763999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>242.7</v>
       </c>
-      <c r="J234" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,14 +8170,12 @@
         <v>-976202.6856403399</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>243.6</v>
       </c>
-      <c r="J235" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8217,14 +8209,12 @@
         <v>-976205.6856403399</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>244</v>
       </c>
-      <c r="J236" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,14 +8248,12 @@
         <v>-976205.6856403399</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>242.7</v>
       </c>
-      <c r="J237" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8299,14 +8287,12 @@
         <v>-976205.6856403399</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>242.7</v>
       </c>
-      <c r="J238" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8340,14 +8326,12 @@
         <v>-974021.0303403399</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>242.7</v>
       </c>
-      <c r="J239" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8381,12 +8365,12 @@
         <v>-974016.0303403399</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8420,12 +8404,12 @@
         <v>-975108.3303403399</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8459,12 +8443,12 @@
         <v>-978287.9540403399</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>244</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8498,12 +8482,12 @@
         <v>-978287.9540403399</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8537,14 +8521,12 @@
         <v>-964835.1879487099</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>243.7</v>
       </c>
-      <c r="J244" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8578,14 +8560,12 @@
         <v>-966793.1400487099</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>245.2</v>
       </c>
-      <c r="J245" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8619,14 +8599,12 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>244.2</v>
       </c>
-      <c r="J246" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8660,14 +8638,12 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>244</v>
       </c>
-      <c r="J247" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8701,14 +8677,12 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>244</v>
       </c>
-      <c r="J248" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8742,14 +8716,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>244</v>
       </c>
-      <c r="J249" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8783,12 +8755,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8822,12 +8794,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8861,12 +8833,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8900,12 +8872,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8939,12 +8911,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8978,12 +8950,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9017,12 +8989,12 @@
         <v>-978846.25464871</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9056,12 +9028,12 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>244</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9095,12 +9067,12 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9134,12 +9106,12 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9173,12 +9145,12 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9212,12 +9184,12 @@
         <v>-987661.91210086</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9251,12 +9223,12 @@
         <v>-987643.77332535</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9290,14 +9262,10 @@
         <v>-988328.37512535</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>245</v>
-      </c>
-      <c r="J263" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9331,14 +9299,10 @@
         <v>-987328.37512535</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J264" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9375,9 +9339,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,9 +9376,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9453,9 +9413,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9492,9 +9450,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9531,9 +9487,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9567,12 +9521,12 @@
         <v>-981067.1303094199</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9606,12 +9560,12 @@
         <v>-986525.7210094199</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9645,14 +9599,12 @@
         <v>-989903.0243094199</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>244</v>
       </c>
-      <c r="J272" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9686,14 +9638,12 @@
         <v>-989900.98260942</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>243.8</v>
       </c>
-      <c r="J273" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9727,14 +9677,12 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>244.9</v>
       </c>
-      <c r="J274" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9768,14 +9716,10 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>245</v>
-      </c>
-      <c r="J275" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9809,14 +9753,12 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>245</v>
       </c>
-      <c r="J276" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9850,14 +9792,10 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>245</v>
-      </c>
-      <c r="J277" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9891,14 +9829,10 @@
         <v>-990133.3407094199</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>245</v>
-      </c>
-      <c r="J278" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9932,14 +9866,10 @@
         <v>-989800.5167094199</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>244.1</v>
-      </c>
-      <c r="J279" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9973,14 +9903,10 @@
         <v>-989800.5167094199</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>245.1</v>
-      </c>
-      <c r="J280" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10017,9 +9943,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10053,14 +9977,10 @@
         <v>-987325.2968094199</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="J282" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10094,14 +10014,10 @@
         <v>-988575.8233094199</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="J283" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10135,14 +10051,10 @@
         <v>-988573.7233094199</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="J284" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10176,14 +10088,10 @@
         <v>-989052.5846094199</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="J285" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10220,9 +10128,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10256,14 +10162,10 @@
         <v>-963652.9028094199</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="J287" t="n">
-        <v>242.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10300,9 +10202,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10339,9 +10239,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10378,9 +10276,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10417,9 +10313,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10456,9 +10350,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10495,9 +10387,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10534,9 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10573,9 +10461,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10612,9 +10498,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10651,9 +10535,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10690,9 +10572,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10729,9 +10609,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10768,9 +10646,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10807,9 +10683,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,9 +10720,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10885,9 +10757,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,9 +10794,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10963,9 +10831,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11002,9 +10868,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11041,9 +10905,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11080,9 +10942,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11119,9 +10979,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11158,9 +11016,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11197,9 +11053,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11236,9 +11090,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11275,9 +11127,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11314,9 +11164,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11353,9 +11201,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11392,9 +11238,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11428,12 +11272,12 @@
         <v>-878202.0850681399</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11470,9 +11314,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11509,9 +11351,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11548,9 +11388,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11587,9 +11425,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11626,9 +11462,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11665,9 +11499,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11704,9 +11536,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11743,9 +11573,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11782,9 +11610,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11821,9 +11647,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11860,9 +11684,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11899,9 +11721,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11913,6 +11733,6 @@
       <c r="M329" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest MTL.xlsx
+++ b/BackTest/2020-01-14 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>684.6705000000015</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>709.1147000000016</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2011.248100000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2011.248100000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1464.914800000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1917.040800000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1917.040800000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2588.943300000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2566.943300000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2566.943300000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>3988.8562</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3975.4118</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3975.4118</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3979.6339</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3979.6339</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3949.1897</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3953.6341</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>3949.4119</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3951.4118</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2371.372300000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2129.299700000001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2129.299700000001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2282.229700000001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2074.167300000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2072.056200000001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2072.056200000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2072.056200000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3116.039800000001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2446.539900000001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1900.376100000001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1900.376100000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1916.317900000001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2416.317900000001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>682.803699999999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>442.803699999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>243.064099999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>173.064099999999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>243.064099999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>247.285899999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-12152.5679</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-12155.2589</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-15265.4645</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-15268.1598</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-15523.1598</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-257.2398000000012</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-257.2398000000012</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2182.172899999999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>2182.172899999999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>2182.172899999999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-224.0512000000012</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>18330.95792823</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>18330.95792823</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>25560.73342823</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>25570.01136288</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>25019.30626288</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>26519.30626288</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>25740.45606288</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>25740.45606288</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>24740.45606288</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>24985.15606288</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>21785.15606288</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>25620.15606288</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>25620.15606288</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>25808.33496288</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>26112.77626288</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>17007.32496288</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>3051.602062879995</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>3051.602062879995</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>3033.824462879995</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>3033.824462879995</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1153.810937120005</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1151.699837120005</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1340.397237120005</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1342.655237120005</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1344.913237120005</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-38484.52043712</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-32939.52043712</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7975,563 +7975,509 @@
         <v>-980045.9388763999</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C231" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D231" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E231" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F231" t="n">
+        <v>843.7592</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-980045.9388763999</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C232" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D232" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E232" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1439.7312</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-980045.9388763999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C233" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D233" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E233" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F233" t="n">
+        <v>800</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-980045.9388763999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C234" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="D234" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="E234" t="n">
+        <v>242.3</v>
+      </c>
+      <c r="F234" t="n">
+        <v>3829.5934</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-976216.3454763999</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>244</v>
+      </c>
+      <c r="C235" t="n">
+        <v>244</v>
+      </c>
+      <c r="D235" t="n">
+        <v>244</v>
+      </c>
+      <c r="E235" t="n">
+        <v>244</v>
+      </c>
+      <c r="F235" t="n">
+        <v>13.65983606</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-976202.6856403399</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C236" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D236" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E236" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-976205.6856403399</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C237" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D237" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E237" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F237" t="n">
+        <v>4036.7845</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-976205.6856403399</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="C238" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D238" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="E238" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="F238" t="n">
+        <v>393.5864</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-976205.6856403399</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="C239" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="D239" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="E239" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2184.6553</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-974021.0303403399</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="J239" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="C240" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="D240" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="E240" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="F240" t="n">
+        <v>5</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-974016.0303403399</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>244</v>
+      </c>
+      <c r="C241" t="n">
+        <v>244</v>
+      </c>
+      <c r="D241" t="n">
+        <v>244</v>
+      </c>
+      <c r="E241" t="n">
+        <v>244</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1092.3</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-975108.3303403399</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
         <v>243.7</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
+      <c r="C242" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="D242" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="E242" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="F242" t="n">
+        <v>3179.6237</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-978287.9540403399</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>244</v>
+      </c>
+      <c r="J242" t="n">
+        <v>244</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="C243" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="D243" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="E243" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="F243" t="n">
+        <v>277.4832</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-978287.9540403399</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="J243" t="n">
+        <v>244</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="C244" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="D244" t="n">
+        <v>246.2</v>
+      </c>
+      <c r="E244" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="F244" t="n">
+        <v>13452.76609163</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-964835.1879487099</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>243.7</v>
+      </c>
+      <c r="J244" t="n">
+        <v>244</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C231" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="D231" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="E231" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="F231" t="n">
-        <v>843.7592</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-980045.9388763999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C232" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="D232" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="E232" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1439.7312</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-980045.9388763999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C233" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="D233" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="E233" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="F233" t="n">
-        <v>800</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-980045.9388763999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C234" t="n">
-        <v>243.6</v>
-      </c>
-      <c r="D234" t="n">
-        <v>243.6</v>
-      </c>
-      <c r="E234" t="n">
-        <v>242.3</v>
-      </c>
-      <c r="F234" t="n">
-        <v>3829.5934</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-976216.3454763999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>244</v>
-      </c>
-      <c r="C235" t="n">
-        <v>244</v>
-      </c>
-      <c r="D235" t="n">
-        <v>244</v>
-      </c>
-      <c r="E235" t="n">
-        <v>244</v>
-      </c>
-      <c r="F235" t="n">
-        <v>13.65983606</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-976202.6856403399</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>243.6</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C236" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="D236" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="E236" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="F236" t="n">
-        <v>3</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-976205.6856403399</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>244</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C237" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="D237" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="E237" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="F237" t="n">
-        <v>4036.7845</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-976205.6856403399</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="C238" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="D238" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="E238" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="F238" t="n">
-        <v>393.5864</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-976205.6856403399</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="C239" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="D239" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="E239" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="F239" t="n">
-        <v>2184.6553</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-974021.0303403399</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="C240" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="D240" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="E240" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="F240" t="n">
-        <v>5</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-974016.0303403399</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>244</v>
-      </c>
-      <c r="C241" t="n">
-        <v>244</v>
-      </c>
-      <c r="D241" t="n">
-        <v>244</v>
-      </c>
-      <c r="E241" t="n">
-        <v>244</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1092.3</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-975108.3303403399</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="C242" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="D242" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="E242" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="F242" t="n">
-        <v>3179.6237</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-978287.9540403399</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>244</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="C243" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="D243" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="E243" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="F243" t="n">
-        <v>277.4832</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-978287.9540403399</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="C244" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="D244" t="n">
-        <v>246.2</v>
-      </c>
-      <c r="E244" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="F244" t="n">
-        <v>13452.76609163</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-964835.1879487099</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8560,12 +8506,12 @@
         <v>-966793.1400487099</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>244</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8599,12 +8545,12 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>244.2</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>244</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8638,12 +8584,12 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
         <v>244</v>
       </c>
-      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8677,12 +8623,12 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
         <v>244</v>
       </c>
-      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8716,12 +8662,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
         <v>244</v>
       </c>
-      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,12 +8701,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>244</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8794,12 +8740,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>244</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8833,12 +8779,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>244</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8872,12 +8818,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>244</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,12 +8857,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>244</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8950,12 +8896,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>244</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8989,12 +8935,12 @@
         <v>-978846.25464871</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>244</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9028,12 +8974,12 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
         <v>244</v>
       </c>
-      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,12 +9013,12 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>244</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9106,12 +9052,12 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>244</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,12 +9091,12 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>244</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9184,12 +9130,12 @@
         <v>-987661.91210086</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>244</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9223,12 +9169,12 @@
         <v>-987643.77332535</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>244</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9265,7 +9211,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>244</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9302,7 +9250,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>244</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9339,7 +9289,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>244</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9376,7 +9328,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>244</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9413,7 +9367,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>244</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9450,7 +9406,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>244</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9487,7 +9445,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>244</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9521,12 +9481,12 @@
         <v>-981067.1303094199</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>244</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,12 +9520,12 @@
         <v>-986525.7210094199</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>244</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9599,12 +9559,12 @@
         <v>-989903.0243094199</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
         <v>244</v>
       </c>
-      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9638,12 +9598,12 @@
         <v>-989900.98260942</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>243.8</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>244</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9677,12 +9637,12 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>244</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9719,7 +9679,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>244</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9753,19 +9715,19 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>245</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>244</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>1</v>
+        <v>0.9990983606557376</v>
       </c>
       <c r="M276" t="inlineStr"/>
     </row>
@@ -9792,15 +9754,11 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9833,11 +9791,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9870,11 +9824,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9907,11 +9857,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9944,11 +9890,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9981,11 +9923,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10018,11 +9956,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10055,11 +9989,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10092,11 +10022,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10129,11 +10055,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10166,11 +10088,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10203,11 +10121,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10240,11 +10154,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10277,11 +10187,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10314,11 +10220,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10253,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10388,11 +10286,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10421,15 +10315,11 @@
         <v>-955859.3730094199</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10458,15 +10348,11 @@
         <v>-963358.1435094199</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10495,15 +10381,11 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10532,15 +10414,11 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10569,15 +10447,11 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10606,15 +10480,11 @@
         <v>-909854.3672094198</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10647,11 +10517,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10684,11 +10550,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10721,11 +10583,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10758,11 +10616,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10795,11 +10649,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10832,11 +10682,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10869,11 +10715,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10906,11 +10748,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10943,11 +10781,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10980,11 +10814,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11017,11 +10847,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11054,11 +10880,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11091,11 +10913,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11128,11 +10946,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11165,11 +10979,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11202,11 +11012,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11239,11 +11045,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11272,17 +11074,11 @@
         <v>-878202.0850681399</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>248.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11315,11 +11111,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11352,11 +11144,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11389,11 +11177,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11426,11 +11210,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11463,11 +11243,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11500,11 +11276,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11537,11 +11309,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11574,11 +11342,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11611,11 +11375,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11648,11 +11408,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11685,11 +11441,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11722,17 +11474,13 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
       <c r="M329" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest MTL.xlsx
+++ b/BackTest/2020-01-14 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>704.6703000000016</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>684.6705000000015</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>709.1147000000016</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2011.248100000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2011.248100000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1464.914800000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1917.040800000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1917.040800000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2588.943300000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2577.943300000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2566.943300000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2566.943300000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2289.054700000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1698.552200000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1508.330100000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1373.108000000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>5371.869900000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>5580.812700000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>4135.484700000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>4135.484700000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>4145.484600000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>4057.373600000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>4081.817800000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>4091.928800000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>4083.04</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>4083.04</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>4083.04</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4083.04</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>4024.04</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>4238.3005</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>4213.1899</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>3988.8562</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3991.0784</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3975.4118</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3975.4118</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3979.6339</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3979.6339</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3949.1897</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3953.6341</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>3949.4119</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3951.4118</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>3949.1795</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3949.1795</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>3947.1796</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>3945.0685</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6719.210000000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2811.221099999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2371.372300000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2129.299700000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2129.299700000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2446.539900000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1900.376100000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1900.376100000001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1916.317900000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2416.317900000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>442.803699999999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>243.064099999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>173.064099999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>243.064099999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>247.285899999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2965.714100000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2965.714100000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>17007.32496288</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -8107,11 +8107,17 @@
         <v>-976216.3454763999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>242.7</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8146,17 @@
         <v>-976202.6856403399</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>243.6</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8189,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8226,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8259,17 @@
         <v>-976205.6856403399</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>242.7</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8277,10 +8303,12 @@
       <c r="I239" t="n">
         <v>242.7</v>
       </c>
-      <c r="J239" t="n">
-        <v>242.7</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,15 +8337,15 @@
         <v>-974016.0303403399</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>242.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -8351,12 +8379,10 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>242.7</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -8392,10 +8418,12 @@
       <c r="I242" t="n">
         <v>244</v>
       </c>
-      <c r="J242" t="n">
-        <v>244</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8429,12 +8457,10 @@
       <c r="I243" t="n">
         <v>243.7</v>
       </c>
-      <c r="J243" t="n">
-        <v>244</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L243" t="n">
@@ -8470,12 +8496,10 @@
       <c r="I244" t="n">
         <v>243.7</v>
       </c>
-      <c r="J244" t="n">
-        <v>244</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L244" t="n">
@@ -8506,12 +8530,12 @@
         <v>-966793.1400487099</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>245.2</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8545,12 +8569,12 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>244.2</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8584,12 +8608,12 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
         <v>244</v>
       </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8623,12 +8647,12 @@
         <v>-979680.1805487099</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
         <v>244</v>
       </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8662,12 +8686,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
         <v>244</v>
       </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8701,12 +8725,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8740,12 +8764,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8779,12 +8803,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8818,12 +8842,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8857,12 +8881,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8896,12 +8920,12 @@
         <v>-982069.48054871</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,9 +8962,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>244</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8977,9 +8999,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>244</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9016,9 +9036,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>244</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9052,12 +9070,12 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9091,12 +9109,12 @@
         <v>-987676.20364871</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9130,12 +9148,12 @@
         <v>-987661.91210086</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9169,12 +9187,12 @@
         <v>-987643.77332535</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9208,12 +9226,12 @@
         <v>-988328.37512535</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>245</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9247,12 +9265,12 @@
         <v>-987328.37512535</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9286,12 +9304,12 @@
         <v>-971985.91730942</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9328,9 +9346,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>244</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9364,12 +9380,12 @@
         <v>-977003.74740942</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9403,12 +9419,12 @@
         <v>-972604.29030942</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>244.2</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9445,9 +9461,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>244</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9481,12 +9495,12 @@
         <v>-981067.1303094199</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9520,12 +9534,12 @@
         <v>-986525.7210094199</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9559,12 +9573,12 @@
         <v>-989903.0243094199</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
         <v>244</v>
       </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9598,12 +9612,12 @@
         <v>-989900.98260942</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>243.8</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9637,12 +9651,12 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,9 +9693,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>244</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9715,19 +9727,19 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>244</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>245</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>0.9990983606557376</v>
+        <v>1</v>
       </c>
       <c r="M276" t="inlineStr"/>
     </row>
@@ -9754,11 +9766,17 @@
         <v>-989436.3594094199</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>245</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9787,11 +9805,17 @@
         <v>-990133.3407094199</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>245</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9820,11 +9844,17 @@
         <v>-989800.5167094199</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>244.1</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9853,11 +9883,17 @@
         <v>-989800.5167094199</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>245.1</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9890,7 +9926,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9919,11 +9959,17 @@
         <v>-987325.2968094199</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>245.2</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9956,7 +10002,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9985,11 +10035,17 @@
         <v>-988573.7233094199</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>244.3</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10022,7 +10078,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10055,7 +10115,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10088,7 +10152,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10121,7 +10189,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10154,7 +10226,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10187,7 +10263,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10220,7 +10300,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10253,7 +10337,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10286,7 +10374,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10315,11 +10407,15 @@
         <v>-955859.3730094199</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10348,11 +10444,15 @@
         <v>-963358.1435094199</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10381,11 +10481,15 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10414,11 +10518,15 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10447,11 +10555,15 @@
         <v>-910808.5671094198</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10480,11 +10592,15 @@
         <v>-909854.3672094198</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10517,7 +10633,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10550,7 +10670,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10583,7 +10707,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10616,7 +10744,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10649,7 +10781,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10682,7 +10818,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10715,7 +10855,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10748,7 +10892,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10781,7 +10929,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10814,7 +10966,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10847,7 +11003,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10880,7 +11040,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10913,7 +11077,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10946,7 +11114,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10979,7 +11151,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11012,7 +11188,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11045,7 +11225,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11078,7 +11262,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11111,7 +11299,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11144,7 +11336,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11177,7 +11373,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11210,7 +11410,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11243,7 +11447,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11276,7 +11484,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11309,7 +11521,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11342,7 +11558,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11375,7 +11595,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11408,7 +11632,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11441,7 +11669,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11474,7 +11706,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest MTL.xlsx
+++ b/BackTest/2020-01-14 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M329"/>
+  <dimension ref="A1:L329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1862.0264</v>
       </c>
       <c r="G2" t="n">
-        <v>704.6703000000016</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>19.9998</v>
       </c>
       <c r="G3" t="n">
-        <v>684.6705000000015</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>24.4442</v>
       </c>
       <c r="G4" t="n">
-        <v>709.1147000000016</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1302.1334</v>
       </c>
       <c r="G5" t="n">
-        <v>2011.248100000002</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>2011.248100000002</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>546.3333</v>
       </c>
       <c r="G7" t="n">
-        <v>1464.914800000002</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>452.126</v>
       </c>
       <c r="G8" t="n">
-        <v>1917.040800000002</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>697.2243999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>1917.040800000002</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>671.9025</v>
       </c>
       <c r="G10" t="n">
-        <v>2588.943300000002</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>2577.943300000002</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>7137.2555</v>
       </c>
       <c r="G12" t="n">
-        <v>2577.943300000002</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>5770.9644</v>
       </c>
       <c r="G13" t="n">
-        <v>2577.943300000002</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>2566.943300000002</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>9.9999</v>
       </c>
       <c r="G15" t="n">
-        <v>2566.943300000002</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>277.8886</v>
       </c>
       <c r="G16" t="n">
-        <v>2289.054700000002</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3.3333</v>
       </c>
       <c r="G17" t="n">
-        <v>2289.054700000002</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>932.0939</v>
       </c>
       <c r="G18" t="n">
-        <v>2289.054700000002</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>59.9994</v>
       </c>
       <c r="G19" t="n">
-        <v>2289.054700000002</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2.2222</v>
       </c>
       <c r="G20" t="n">
-        <v>2289.054700000002</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>9.9999</v>
       </c>
       <c r="G21" t="n">
-        <v>2289.054700000002</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>590.5025000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>1698.552200000001</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>190.2221</v>
       </c>
       <c r="G23" t="n">
-        <v>1508.330100000001</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>135.2221</v>
       </c>
       <c r="G24" t="n">
-        <v>1373.108000000002</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3998.7619</v>
       </c>
       <c r="G25" t="n">
-        <v>5371.869900000002</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>208.9428</v>
       </c>
       <c r="G26" t="n">
-        <v>5580.812700000001</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1445.328</v>
       </c>
       <c r="G27" t="n">
-        <v>4135.484700000001</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3984.517</v>
       </c>
       <c r="G28" t="n">
-        <v>4135.484700000001</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>9.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>4145.484600000001</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>12.2221</v>
       </c>
       <c r="G30" t="n">
-        <v>4145.484600000001</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>4417.8101</v>
       </c>
       <c r="G31" t="n">
-        <v>4145.484600000001</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>88.111</v>
       </c>
       <c r="G32" t="n">
-        <v>4057.373600000001</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>24.4442</v>
       </c>
       <c r="G33" t="n">
-        <v>4081.817800000001</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>10.111</v>
       </c>
       <c r="G34" t="n">
-        <v>4091.928800000001</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>8.8888</v>
       </c>
       <c r="G35" t="n">
-        <v>4083.04</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>4083.04</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>4083.04</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2.2222</v>
       </c>
       <c r="G38" t="n">
-        <v>4083.04</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>59</v>
       </c>
       <c r="G39" t="n">
-        <v>4024.04</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>214.2605</v>
       </c>
       <c r="G40" t="n">
-        <v>4238.3005</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>25.1106</v>
       </c>
       <c r="G41" t="n">
-        <v>4213.1899</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>222.1115</v>
       </c>
       <c r="G42" t="n">
-        <v>3991.0784</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2.2222</v>
       </c>
       <c r="G43" t="n">
-        <v>3991.0784</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>202.2021</v>
       </c>
       <c r="G44" t="n">
-        <v>3991.0784</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2.2222</v>
       </c>
       <c r="G45" t="n">
-        <v>3988.8562</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2.2222</v>
       </c>
       <c r="G46" t="n">
-        <v>3991.0784</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>15.6666</v>
       </c>
       <c r="G47" t="n">
-        <v>3975.4118</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>11.1111</v>
       </c>
       <c r="G48" t="n">
-        <v>3975.4118</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>4.2221</v>
       </c>
       <c r="G49" t="n">
-        <v>3979.6339</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>14.111</v>
       </c>
       <c r="G50" t="n">
-        <v>3979.6339</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>30.4442</v>
       </c>
       <c r="G51" t="n">
-        <v>3949.1897</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>4.4444</v>
       </c>
       <c r="G52" t="n">
-        <v>3953.6341</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>4.2222</v>
       </c>
       <c r="G53" t="n">
-        <v>3949.4119</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>3951.4118</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2.2323</v>
       </c>
       <c r="G55" t="n">
-        <v>3949.1795</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3.3333</v>
       </c>
       <c r="G56" t="n">
-        <v>3949.1795</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1.9999</v>
       </c>
       <c r="G57" t="n">
-        <v>3947.1796</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2.1111</v>
       </c>
       <c r="G58" t="n">
-        <v>3945.0685</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>10664.2785</v>
       </c>
       <c r="G59" t="n">
-        <v>-6719.210000000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>9530.4311</v>
       </c>
       <c r="G60" t="n">
-        <v>2811.221099999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>5182.5934</v>
       </c>
       <c r="G61" t="n">
-        <v>-2371.372300000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>242.0726</v>
       </c>
       <c r="G62" t="n">
-        <v>-2129.299700000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>5513.7981</v>
       </c>
       <c r="G63" t="n">
-        <v>-2129.299700000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>152.93</v>
       </c>
       <c r="G64" t="n">
-        <v>-2282.229700000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>208.0624</v>
       </c>
       <c r="G65" t="n">
-        <v>-2074.167300000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2.1111</v>
       </c>
       <c r="G66" t="n">
-        <v>-2072.056200000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>839.6138999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>-2072.056200000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>972.2916</v>
       </c>
       <c r="G68" t="n">
-        <v>-2072.056200000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1043.9836</v>
       </c>
       <c r="G69" t="n">
-        <v>-3116.039800000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>669.4999</v>
       </c>
       <c r="G70" t="n">
-        <v>-2446.539900000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>546.1638</v>
       </c>
       <c r="G71" t="n">
-        <v>-1900.376100000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>740.7361</v>
       </c>
       <c r="G72" t="n">
-        <v>-1900.376100000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>15.9418</v>
       </c>
       <c r="G73" t="n">
-        <v>-1916.317900000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>500</v>
       </c>
       <c r="G74" t="n">
-        <v>-2416.317900000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>3099.1216</v>
       </c>
       <c r="G75" t="n">
-        <v>682.803699999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>240</v>
       </c>
       <c r="G76" t="n">
-        <v>442.803699999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>199.7396</v>
       </c>
       <c r="G77" t="n">
-        <v>243.064099999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>70</v>
       </c>
       <c r="G78" t="n">
-        <v>173.064099999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>70</v>
       </c>
       <c r="G79" t="n">
-        <v>243.064099999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>4.2218</v>
       </c>
       <c r="G80" t="n">
-        <v>247.285899999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>3213</v>
       </c>
       <c r="G81" t="n">
-        <v>-2965.714100000001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>2409.8</v>
       </c>
       <c r="G82" t="n">
-        <v>-2965.714100000001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>805.6292999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-3771.343400000001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>-3671.343400000001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>830.5075000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-4501.850900000001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>200</v>
       </c>
       <c r="G86" t="n">
-        <v>-4701.850900000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>2.6845</v>
       </c>
       <c r="G87" t="n">
-        <v>-4704.535400000002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>44.4142</v>
       </c>
       <c r="G88" t="n">
-        <v>-4660.121200000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>7492.4467</v>
       </c>
       <c r="G89" t="n">
-        <v>-12152.5679</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>2016</v>
       </c>
       <c r="G90" t="n">
-        <v>-12152.5679</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>2.691</v>
       </c>
       <c r="G91" t="n">
-        <v>-12155.2589</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>7442.891</v>
       </c>
       <c r="G92" t="n">
-        <v>-12155.2589</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>196</v>
       </c>
       <c r="G93" t="n">
-        <v>-12155.2589</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>200</v>
       </c>
       <c r="G94" t="n">
-        <v>-12155.2589</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>414</v>
       </c>
       <c r="G95" t="n">
-        <v>-12155.2589</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>2210</v>
       </c>
       <c r="G96" t="n">
-        <v>-12155.2589</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1065</v>
       </c>
       <c r="G97" t="n">
-        <v>-12155.2589</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>3110.2056</v>
       </c>
       <c r="G98" t="n">
-        <v>-15265.4645</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>2.6953</v>
       </c>
       <c r="G99" t="n">
-        <v>-15268.1598</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>255</v>
       </c>
       <c r="G100" t="n">
-        <v>-15523.1598</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>15265.92</v>
       </c>
       <c r="G101" t="n">
-        <v>-257.2398000000012</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>908</v>
       </c>
       <c r="G102" t="n">
-        <v>-257.2398000000012</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2439.4127</v>
       </c>
       <c r="G103" t="n">
-        <v>2182.172899999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>600</v>
       </c>
       <c r="G104" t="n">
-        <v>2182.172899999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>2182.172899999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2406.2241</v>
       </c>
       <c r="G106" t="n">
-        <v>-224.0512000000012</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1266.7542</v>
       </c>
       <c r="G107" t="n">
-        <v>-1490.805400000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>2956.7631</v>
       </c>
       <c r="G108" t="n">
-        <v>1465.957699999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>255</v>
       </c>
       <c r="G109" t="n">
-        <v>1465.957699999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>500</v>
       </c>
       <c r="G110" t="n">
-        <v>1465.957699999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>2310</v>
       </c>
       <c r="G111" t="n">
-        <v>1465.957699999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>895.88</v>
       </c>
       <c r="G112" t="n">
-        <v>570.0776999999988</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>4096.17004048</v>
       </c>
       <c r="G113" t="n">
-        <v>570.0776999999988</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>2195.7418</v>
       </c>
       <c r="G114" t="n">
-        <v>-1625.664100000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>2918</v>
       </c>
       <c r="G115" t="n">
-        <v>1292.335899999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>20013.5716</v>
       </c>
       <c r="G116" t="n">
-        <v>21305.9075</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>12.83594063</v>
       </c>
       <c r="G117" t="n">
-        <v>21318.74344063</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>8.920112400000001</v>
       </c>
       <c r="G118" t="n">
-        <v>21309.82332823</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>4.5</v>
       </c>
       <c r="G119" t="n">
-        <v>21309.82332823</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>415</v>
       </c>
       <c r="G120" t="n">
-        <v>20894.82332823</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>4071.0371</v>
       </c>
       <c r="G121" t="n">
-        <v>24965.86042823</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>71.09999999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>24894.76042823</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>1563.8025</v>
       </c>
       <c r="G123" t="n">
-        <v>23330.95792823</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>5000</v>
       </c>
       <c r="G124" t="n">
-        <v>18330.95792823</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>18330.95792823</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>2910</v>
       </c>
       <c r="G126" t="n">
-        <v>18330.95792823</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>59</v>
       </c>
       <c r="G127" t="n">
-        <v>18330.95792823</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>18330.95792823</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>6997.7059</v>
       </c>
       <c r="G129" t="n">
-        <v>25328.66382823</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>232.0696</v>
       </c>
       <c r="G130" t="n">
-        <v>25560.73342823</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>9.277934650000001</v>
       </c>
       <c r="G131" t="n">
-        <v>25570.01136288</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>550.7051</v>
       </c>
       <c r="G132" t="n">
-        <v>25019.30626288</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1500</v>
       </c>
       <c r="G133" t="n">
-        <v>26519.30626288</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>778.8502</v>
       </c>
       <c r="G134" t="n">
-        <v>25740.45606288</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>7688.7332</v>
       </c>
       <c r="G135" t="n">
-        <v>25740.45606288</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1000</v>
       </c>
       <c r="G136" t="n">
-        <v>24740.45606288</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>244.7</v>
       </c>
       <c r="G137" t="n">
-        <v>24985.15606288</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>3200</v>
       </c>
       <c r="G138" t="n">
-        <v>21785.15606288</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>3835</v>
       </c>
       <c r="G139" t="n">
-        <v>25620.15606288</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>1005</v>
       </c>
       <c r="G140" t="n">
-        <v>25620.15606288</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>188.1789</v>
       </c>
       <c r="G141" t="n">
-        <v>25808.33496288</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>3.0933</v>
       </c>
       <c r="G142" t="n">
-        <v>25808.33496288</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>304.4413</v>
       </c>
       <c r="G143" t="n">
-        <v>26112.77626288</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>164.0397</v>
       </c>
       <c r="G144" t="n">
-        <v>25948.73656288</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>164</v>
       </c>
       <c r="G145" t="n">
-        <v>26112.73656288</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>6401.7643</v>
       </c>
       <c r="G146" t="n">
-        <v>26112.73656288</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>9105.411599999999</v>
       </c>
       <c r="G147" t="n">
-        <v>17007.32496288</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>586.2192</v>
       </c>
       <c r="G148" t="n">
-        <v>17007.32496288</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>598.0539</v>
       </c>
       <c r="G149" t="n">
-        <v>17605.37886288</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>1274.7504</v>
       </c>
       <c r="G150" t="n">
-        <v>17605.37886288</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>14362.0514</v>
       </c>
       <c r="G151" t="n">
-        <v>3243.327462879995</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>1511.9999</v>
       </c>
       <c r="G152" t="n">
-        <v>3243.327462879995</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>1593.1641</v>
       </c>
       <c r="G153" t="n">
-        <v>3243.327462879995</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>3.3333</v>
       </c>
       <c r="G154" t="n">
-        <v>3246.660762879995</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>9.9999</v>
       </c>
       <c r="G155" t="n">
-        <v>3246.660762879995</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>36.3636</v>
       </c>
       <c r="G156" t="n">
-        <v>3246.660762879995</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>195.0587</v>
       </c>
       <c r="G157" t="n">
-        <v>3051.602062879995</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>18.1818</v>
       </c>
       <c r="G158" t="n">
-        <v>3051.602062879995</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>46.3635</v>
       </c>
       <c r="G159" t="n">
-        <v>3051.602062879995</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>17.7776</v>
       </c>
       <c r="G160" t="n">
-        <v>3033.824462879995</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>10.2224</v>
       </c>
       <c r="G161" t="n">
-        <v>3033.824462879995</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>4187.6354</v>
       </c>
       <c r="G162" t="n">
-        <v>-1153.810937120005</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>2.1111</v>
       </c>
       <c r="G163" t="n">
-        <v>-1151.699837120005</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>2.2221</v>
       </c>
       <c r="G164" t="n">
-        <v>-1149.477737120005</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>2.258</v>
       </c>
       <c r="G165" t="n">
-        <v>-1151.735737120005</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>165.216</v>
       </c>
       <c r="G166" t="n">
-        <v>-1316.951737120005</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>40</v>
       </c>
       <c r="G167" t="n">
-        <v>-1356.951737120005</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>16.5545</v>
       </c>
       <c r="G168" t="n">
-        <v>-1340.397237120005</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>2.258</v>
       </c>
       <c r="G169" t="n">
-        <v>-1342.655237120005</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>2.258</v>
       </c>
       <c r="G170" t="n">
-        <v>-1344.913237120005</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>5354.8316</v>
       </c>
       <c r="G171" t="n">
-        <v>-6699.744837120005</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>36800.745</v>
       </c>
       <c r="G172" t="n">
-        <v>-43500.48983712001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>218.3213</v>
       </c>
       <c r="G173" t="n">
-        <v>-43282.16853712001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>3230.2639</v>
       </c>
       <c r="G174" t="n">
-        <v>-40051.90463712001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>6369.7361</v>
       </c>
       <c r="G175" t="n">
-        <v>-40051.90463712001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>2.1208</v>
       </c>
       <c r="G176" t="n">
-        <v>-40054.02543712001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>2.5554</v>
       </c>
       <c r="G177" t="n">
-        <v>-40056.58083712</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>1681.4081</v>
       </c>
       <c r="G178" t="n">
-        <v>-38375.17273712</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>633.3771</v>
       </c>
       <c r="G179" t="n">
-        <v>-38375.17273712</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>2250</v>
       </c>
       <c r="G180" t="n">
-        <v>-38375.17273712</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>355.8671</v>
       </c>
       <c r="G181" t="n">
-        <v>-38019.30563712</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>465.2148</v>
       </c>
       <c r="G182" t="n">
-        <v>-38484.52043712</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>38</v>
       </c>
       <c r="G183" t="n">
-        <v>-38484.52043712</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>5545</v>
       </c>
       <c r="G184" t="n">
-        <v>-32939.52043712</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>883</v>
       </c>
       <c r="G185" t="n">
-        <v>-32939.52043712</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>393.1201</v>
       </c>
       <c r="G186" t="n">
-        <v>-33332.64053712</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>891401.7129</v>
       </c>
       <c r="G187" t="n">
-        <v>-924734.3534371201</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>4283.8988</v>
       </c>
       <c r="G188" t="n">
-        <v>-929018.2522371201</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>2110.052</v>
       </c>
       <c r="G189" t="n">
-        <v>-931128.3042371201</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>5388.137</v>
       </c>
       <c r="G190" t="n">
-        <v>-925740.1672371201</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>2025.37506072</v>
       </c>
       <c r="G191" t="n">
-        <v>-923714.7921764001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>5795.2385</v>
       </c>
       <c r="G192" t="n">
-        <v>-929510.0306764001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>2725.0843</v>
       </c>
       <c r="G193" t="n">
-        <v>-926784.9463764001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>3160.1481</v>
       </c>
       <c r="G194" t="n">
-        <v>-929945.0944764001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>6000</v>
       </c>
       <c r="G195" t="n">
-        <v>-923945.0944764001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>2220.56</v>
       </c>
       <c r="G196" t="n">
-        <v>-926165.6544764001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>2161</v>
       </c>
       <c r="G197" t="n">
-        <v>-926165.6544764001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>2273.89</v>
       </c>
       <c r="G198" t="n">
-        <v>-926165.6544764001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>20</v>
       </c>
       <c r="G199" t="n">
-        <v>-926165.6544764001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>200</v>
       </c>
       <c r="G200" t="n">
-        <v>-925965.6544764001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>20</v>
       </c>
       <c r="G201" t="n">
-        <v>-925945.6544764001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>165.9999</v>
       </c>
       <c r="G202" t="n">
-        <v>-925945.6544764001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>63.0016</v>
       </c>
       <c r="G203" t="n">
-        <v>-925945.6544764001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>1271.2919</v>
       </c>
       <c r="G204" t="n">
-        <v>-927216.9463764001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>10401.7925</v>
       </c>
       <c r="G205" t="n">
-        <v>-937618.7388764</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>400</v>
       </c>
       <c r="G206" t="n">
-        <v>-938018.7388764</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>156.5601</v>
       </c>
       <c r="G207" t="n">
-        <v>-938018.7388764</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>10025.4845</v>
       </c>
       <c r="G208" t="n">
-        <v>-948044.2233764001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>1360</v>
       </c>
       <c r="G209" t="n">
-        <v>-946684.2233764001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>1381.7893</v>
       </c>
       <c r="G210" t="n">
-        <v>-948066.0126764</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>78.35590000000001</v>
       </c>
       <c r="G211" t="n">
-        <v>-948144.3685764</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>3261.38</v>
       </c>
       <c r="G212" t="n">
-        <v>-951405.7485764</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>8878.4516</v>
       </c>
       <c r="G213" t="n">
-        <v>-960284.2001764</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>1580.5843</v>
       </c>
       <c r="G214" t="n">
-        <v>-958703.6158764</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>3438.3153</v>
       </c>
       <c r="G215" t="n">
-        <v>-955265.3005764</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>271</v>
       </c>
       <c r="G216" t="n">
-        <v>-955536.3005764</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>2374.5747</v>
       </c>
       <c r="G217" t="n">
-        <v>-953161.7258764</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>1744.9999</v>
       </c>
       <c r="G218" t="n">
-        <v>-954906.7257764001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>303.0714</v>
       </c>
       <c r="G219" t="n">
-        <v>-954906.7257764001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>2469.325</v>
       </c>
       <c r="G220" t="n">
-        <v>-957376.0507764</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>1885.9999</v>
       </c>
       <c r="G221" t="n">
-        <v>-955490.0508764</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>635.6913</v>
       </c>
       <c r="G222" t="n">
-        <v>-956125.7421763999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>2471</v>
       </c>
       <c r="G223" t="n">
-        <v>-958596.7421763999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>18769.308</v>
       </c>
       <c r="G224" t="n">
-        <v>-977366.0501763999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>121.6705</v>
       </c>
       <c r="G225" t="n">
-        <v>-977366.0501763999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>582.9999</v>
       </c>
       <c r="G226" t="n">
-        <v>-977949.0500763999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>1594.1782</v>
       </c>
       <c r="G227" t="n">
-        <v>-977949.0500763999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>2370</v>
       </c>
       <c r="G228" t="n">
-        <v>-980319.0500763999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>1282</v>
       </c>
       <c r="G229" t="n">
-        <v>-979037.0500763999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>1008.8888</v>
       </c>
       <c r="G230" t="n">
-        <v>-980045.9388763999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>843.7592</v>
       </c>
       <c r="G231" t="n">
-        <v>-980045.9388763999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>1439.7312</v>
       </c>
       <c r="G232" t="n">
-        <v>-980045.9388763999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>800</v>
       </c>
       <c r="G233" t="n">
-        <v>-980045.9388763999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,24 +7403,21 @@
         <v>3829.5934</v>
       </c>
       <c r="G234" t="n">
-        <v>-976216.3454763999</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
         <v>242.7</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8143,24 +7439,21 @@
         <v>13.65983606</v>
       </c>
       <c r="G235" t="n">
-        <v>-976202.6856403399</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
         <v>243.6</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8182,22 +7475,21 @@
         <v>3</v>
       </c>
       <c r="G236" t="n">
-        <v>-976205.6856403399</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
+      <c r="J236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8219,22 +7511,21 @@
         <v>4036.7845</v>
       </c>
       <c r="G237" t="n">
-        <v>-976205.6856403399</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>242.7</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
+      <c r="J237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8256,24 +7547,21 @@
         <v>393.5864</v>
       </c>
       <c r="G238" t="n">
-        <v>-976205.6856403399</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
         <v>242.7</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8295,24 +7583,21 @@
         <v>2184.6553</v>
       </c>
       <c r="G239" t="n">
-        <v>-974021.0303403399</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
         <v>242.7</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8334,24 +7619,21 @@
         <v>5</v>
       </c>
       <c r="G240" t="n">
-        <v>-974016.0303403399</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
         <v>244.3</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8373,22 +7655,21 @@
         <v>1092.3</v>
       </c>
       <c r="G241" t="n">
-        <v>-975108.3303403399</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>244.9</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
+      <c r="J241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8410,24 +7691,19 @@
         <v>3179.6237</v>
       </c>
       <c r="G242" t="n">
-        <v>-978287.9540403399</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>244</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8449,24 +7725,19 @@
         <v>277.4832</v>
       </c>
       <c r="G243" t="n">
-        <v>-978287.9540403399</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8488,24 +7759,19 @@
         <v>13452.76609163</v>
       </c>
       <c r="G244" t="n">
-        <v>-964835.1879487099</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>243.7</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8527,24 +7793,19 @@
         <v>1957.9521</v>
       </c>
       <c r="G245" t="n">
-        <v>-966793.1400487099</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8566,24 +7827,19 @@
         <v>12887.0405</v>
       </c>
       <c r="G246" t="n">
-        <v>-979680.1805487099</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>244.2</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8605,24 +7861,19 @@
         <v>356.1068</v>
       </c>
       <c r="G247" t="n">
-        <v>-979680.1805487099</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>244</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8644,24 +7895,19 @@
         <v>2000</v>
       </c>
       <c r="G248" t="n">
-        <v>-979680.1805487099</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>244</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8683,24 +7929,19 @@
         <v>2389.3</v>
       </c>
       <c r="G249" t="n">
-        <v>-982069.48054871</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>244</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8722,24 +7963,19 @@
         <v>2798.2</v>
       </c>
       <c r="G250" t="n">
-        <v>-982069.48054871</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8761,24 +7997,19 @@
         <v>1753.2463</v>
       </c>
       <c r="G251" t="n">
-        <v>-982069.48054871</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8800,24 +8031,19 @@
         <v>627.7127</v>
       </c>
       <c r="G252" t="n">
-        <v>-982069.48054871</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8839,24 +8065,19 @@
         <v>1390.5836</v>
       </c>
       <c r="G253" t="n">
-        <v>-982069.48054871</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8878,24 +8099,19 @@
         <v>1228.8667</v>
       </c>
       <c r="G254" t="n">
-        <v>-982069.48054871</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8917,24 +8133,19 @@
         <v>265.7824</v>
       </c>
       <c r="G255" t="n">
-        <v>-982069.48054871</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8956,22 +8167,19 @@
         <v>3223.2259</v>
       </c>
       <c r="G256" t="n">
-        <v>-978846.25464871</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
+      <c r="J256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8993,22 +8201,19 @@
         <v>8829.949000000001</v>
       </c>
       <c r="G257" t="n">
-        <v>-987676.20364871</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
+      <c r="J257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9030,22 +8235,19 @@
         <v>132.0921</v>
       </c>
       <c r="G258" t="n">
-        <v>-987676.20364871</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
+      <c r="J258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9067,24 +8269,19 @@
         <v>1771.0733</v>
       </c>
       <c r="G259" t="n">
-        <v>-987676.20364871</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9106,24 +8303,19 @@
         <v>121.9207</v>
       </c>
       <c r="G260" t="n">
-        <v>-987676.20364871</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9145,24 +8337,19 @@
         <v>14.29154785</v>
       </c>
       <c r="G261" t="n">
-        <v>-987661.91210086</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9184,24 +8371,19 @@
         <v>18.13877551</v>
       </c>
       <c r="G262" t="n">
-        <v>-987643.77332535</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9223,24 +8405,19 @@
         <v>684.6018</v>
       </c>
       <c r="G263" t="n">
-        <v>-988328.37512535</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>245</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9262,24 +8439,19 @@
         <v>1000</v>
       </c>
       <c r="G264" t="n">
-        <v>-987328.37512535</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9301,24 +8473,19 @@
         <v>15342.45781593</v>
       </c>
       <c r="G265" t="n">
-        <v>-971985.91730942</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9340,22 +8507,19 @@
         <v>6414.5301</v>
       </c>
       <c r="G266" t="n">
-        <v>-978400.4474094199</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
+      <c r="J266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9377,24 +8541,19 @@
         <v>1396.7</v>
       </c>
       <c r="G267" t="n">
-        <v>-977003.74740942</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>243.9</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9416,24 +8575,19 @@
         <v>4399.4571</v>
       </c>
       <c r="G268" t="n">
-        <v>-972604.29030942</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>244.2</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9455,22 +8609,19 @@
         <v>8462.84</v>
       </c>
       <c r="G269" t="n">
-        <v>-981067.1303094199</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
+      <c r="J269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9492,24 +8643,19 @@
         <v>800</v>
       </c>
       <c r="G270" t="n">
-        <v>-981067.1303094199</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9531,24 +8677,19 @@
         <v>5458.5907</v>
       </c>
       <c r="G271" t="n">
-        <v>-986525.7210094199</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9570,24 +8711,19 @@
         <v>3377.3033</v>
       </c>
       <c r="G272" t="n">
-        <v>-989903.0243094199</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>244</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9609,24 +8745,19 @@
         <v>2.0417</v>
       </c>
       <c r="G273" t="n">
-        <v>-989900.98260942</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>243.8</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9648,24 +8779,19 @@
         <v>464.6232</v>
       </c>
       <c r="G274" t="n">
-        <v>-989436.3594094199</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9687,22 +8813,19 @@
         <v>1000</v>
       </c>
       <c r="G275" t="n">
-        <v>-989436.3594094199</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
+      <c r="J275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9724,24 +8847,19 @@
         <v>299.9099</v>
       </c>
       <c r="G276" t="n">
-        <v>-989436.3594094199</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>245</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9763,24 +8881,19 @@
         <v>2115.6346</v>
       </c>
       <c r="G277" t="n">
-        <v>-989436.3594094199</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>245</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9802,24 +8915,19 @@
         <v>696.9813</v>
       </c>
       <c r="G278" t="n">
-        <v>-990133.3407094199</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>245</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9841,24 +8949,19 @@
         <v>332.824</v>
       </c>
       <c r="G279" t="n">
-        <v>-989800.5167094199</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>244.1</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9880,24 +8983,19 @@
         <v>348.3131</v>
       </c>
       <c r="G280" t="n">
-        <v>-989800.5167094199</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>245.1</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9919,22 +9017,19 @@
         <v>2475.2199</v>
       </c>
       <c r="G281" t="n">
-        <v>-987325.2968094199</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
+      <c r="J281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9956,24 +9051,19 @@
         <v>378.7962</v>
       </c>
       <c r="G282" t="n">
-        <v>-987325.2968094199</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>245.2</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9995,22 +9085,19 @@
         <v>1250.5265</v>
       </c>
       <c r="G283" t="n">
-        <v>-988575.8233094199</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
+      <c r="J283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10032,24 +9119,19 @@
         <v>2.1</v>
       </c>
       <c r="G284" t="n">
-        <v>-988573.7233094199</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>244.3</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10071,22 +9153,19 @@
         <v>478.8613</v>
       </c>
       <c r="G285" t="n">
-        <v>-989052.5846094199</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
+      <c r="J285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10108,22 +9187,19 @@
         <v>25399.6818</v>
       </c>
       <c r="G286" t="n">
-        <v>-963652.9028094199</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
+      <c r="J286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10145,22 +9221,19 @@
         <v>489.646</v>
       </c>
       <c r="G287" t="n">
-        <v>-963652.9028094199</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
+      <c r="J287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10182,22 +9255,19 @@
         <v>2579.3963</v>
       </c>
       <c r="G288" t="n">
-        <v>-963652.9028094199</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
+      <c r="J288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10219,22 +9289,19 @@
         <v>329.1922</v>
       </c>
       <c r="G289" t="n">
-        <v>-963323.7106094199</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
+      <c r="J289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10256,22 +9323,19 @@
         <v>428.2818</v>
       </c>
       <c r="G290" t="n">
-        <v>-963323.7106094199</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
+      <c r="J290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10293,22 +9357,19 @@
         <v>242.526</v>
       </c>
       <c r="G291" t="n">
-        <v>-963323.7106094199</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
+      <c r="J291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10330,22 +9391,19 @@
         <v>5420.1344</v>
       </c>
       <c r="G292" t="n">
-        <v>-957903.5762094199</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
+      <c r="J292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10367,22 +9425,19 @@
         <v>139</v>
       </c>
       <c r="G293" t="n">
-        <v>-957764.5762094199</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
+      <c r="J293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10404,22 +9459,19 @@
         <v>1905.2032</v>
       </c>
       <c r="G294" t="n">
-        <v>-955859.3730094199</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
+      <c r="J294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10441,22 +9493,19 @@
         <v>7498.7705</v>
       </c>
       <c r="G295" t="n">
-        <v>-963358.1435094199</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
+      <c r="J295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10478,22 +9527,19 @@
         <v>52549.5764</v>
       </c>
       <c r="G296" t="n">
-        <v>-910808.5671094198</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
+      <c r="J296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10515,22 +9561,19 @@
         <v>7253.0842</v>
       </c>
       <c r="G297" t="n">
-        <v>-910808.5671094198</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
+      <c r="J297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10552,22 +9595,19 @@
         <v>10996.2088</v>
       </c>
       <c r="G298" t="n">
-        <v>-910808.5671094198</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
+      <c r="J298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10589,22 +9629,19 @@
         <v>954.1999</v>
       </c>
       <c r="G299" t="n">
-        <v>-909854.3672094198</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
+      <c r="J299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10626,22 +9663,19 @@
         <v>800</v>
       </c>
       <c r="G300" t="n">
-        <v>-909054.3672094198</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
+      <c r="J300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10663,22 +9697,19 @@
         <v>1276.9526</v>
       </c>
       <c r="G301" t="n">
-        <v>-907777.4146094199</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
+      <c r="J301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10700,22 +9731,19 @@
         <v>10291.9436</v>
       </c>
       <c r="G302" t="n">
-        <v>-918069.3582094199</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
+      <c r="J302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10737,22 +9765,19 @@
         <v>1431</v>
       </c>
       <c r="G303" t="n">
-        <v>-918069.3582094199</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
+      <c r="J303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10774,22 +9799,19 @@
         <v>4999.9999016</v>
       </c>
       <c r="G304" t="n">
-        <v>-918069.3582094199</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
+      <c r="J304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10811,22 +9833,19 @@
         <v>1178.44326524</v>
       </c>
       <c r="G305" t="n">
-        <v>-919247.8014746599</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
+      <c r="J305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10848,22 +9867,19 @@
         <v>138.6825</v>
       </c>
       <c r="G306" t="n">
-        <v>-919247.8014746599</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
+      <c r="J306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10885,22 +9901,19 @@
         <v>1459.4378</v>
       </c>
       <c r="G307" t="n">
-        <v>-919247.8014746599</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
+      <c r="J307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10922,22 +9935,19 @@
         <v>45045.59753316</v>
       </c>
       <c r="G308" t="n">
-        <v>-874202.2039414999</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
+      <c r="J308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10959,22 +9969,19 @@
         <v>611.5272</v>
       </c>
       <c r="G309" t="n">
-        <v>-873590.6767414999</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
+      <c r="J309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10996,22 +10003,19 @@
         <v>108</v>
       </c>
       <c r="G310" t="n">
-        <v>-873590.6767414999</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
+      <c r="J310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11033,22 +10037,19 @@
         <v>3341.5466</v>
       </c>
       <c r="G311" t="n">
-        <v>-870249.1301414999</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
+      <c r="J311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11070,22 +10071,17 @@
         <v>12124.32052664</v>
       </c>
       <c r="G312" t="n">
-        <v>-882373.45066814</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
+      <c r="J312" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11107,22 +10103,15 @@
         <v>300</v>
       </c>
       <c r="G313" t="n">
-        <v>-882373.45066814</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11144,22 +10133,15 @@
         <v>165.0138</v>
       </c>
       <c r="G314" t="n">
-        <v>-882538.4644681399</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11181,22 +10163,15 @@
         <v>300</v>
       </c>
       <c r="G315" t="n">
-        <v>-882838.4644681399</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11218,22 +10193,15 @@
         <v>4000</v>
       </c>
       <c r="G316" t="n">
-        <v>-882838.4644681399</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11255,22 +10223,15 @@
         <v>4636.3794</v>
       </c>
       <c r="G317" t="n">
-        <v>-878202.0850681399</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11292,22 +10253,15 @@
         <v>10</v>
       </c>
       <c r="G318" t="n">
-        <v>-878192.0850681399</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11329,22 +10283,15 @@
         <v>447.5668</v>
       </c>
       <c r="G319" t="n">
-        <v>-877744.5182681399</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11366,22 +10313,15 @@
         <v>3712.63848829</v>
       </c>
       <c r="G320" t="n">
-        <v>-874031.8797798499</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11403,22 +10343,15 @@
         <v>892.83279802</v>
       </c>
       <c r="G321" t="n">
-        <v>-874924.7125778699</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11440,22 +10373,15 @@
         <v>50.61692933</v>
       </c>
       <c r="G322" t="n">
-        <v>-874874.0956485398</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11477,22 +10403,15 @@
         <v>1837.2411</v>
       </c>
       <c r="G323" t="n">
-        <v>-874874.0956485398</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11514,22 +10433,15 @@
         <v>1837.2411</v>
       </c>
       <c r="G324" t="n">
-        <v>-876711.3367485398</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11551,22 +10463,15 @@
         <v>3067.464</v>
       </c>
       <c r="G325" t="n">
-        <v>-879778.8007485399</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11588,22 +10493,15 @@
         <v>40</v>
       </c>
       <c r="G326" t="n">
-        <v>-879818.8007485399</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11625,22 +10523,15 @@
         <v>905</v>
       </c>
       <c r="G327" t="n">
-        <v>-878913.8007485399</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11662,22 +10553,15 @@
         <v>14160.2457</v>
       </c>
       <c r="G328" t="n">
-        <v>-893074.0464485398</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11699,22 +10583,15 @@
         <v>4358.4933</v>
       </c>
       <c r="G329" t="n">
-        <v>-893074.0464485398</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
